--- a/test.xlsx
+++ b/test.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E417"/>
+  <dimension ref="A1:E426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>使用道具1四方八方之网】捕获30只野外生物。</t>
+          <t>使用道具「四方八方之网]捕获30只野外生物。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>循着长存者之迹，卯开了秘境之门。</t>
+          <t>循着长存者之迹，开了秘境之门。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>帮助仙灵归位，解锁奔狼领内的秘境入口</t>
+          <t>帮助仙灵归位，解锁奔狼领内的秘境入口。</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>烹饪1道口味奇怪的料理。</t>
+          <t>烹饪1道口味奇怪的料理</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[.·人人都是食神。」</t>
+          <t>『.人人都是食神。」</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>蒙德的声望等级达到8级</t>
+          <t>蒙德的声望等级达到8级，</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>璃月的声望等级达到8级。</t>
+          <t>璃月的声望等级达到8级</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>QUESTCLEAR</t>
+          <t>布武雷国</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>完成30次「讨伐悬赏】</t>
+          <t>稻妻的声望等级达到10级。</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>见习勇者</t>
+          <t>QUESTCLEAR</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>完成30次「居民请求」。</t>
+          <t>完成30次「讨伐悬赏】。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>QUESTFAILED</t>
+          <t>见习勇者</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>跟丢了悬赏自标··</t>
+          <t>完成30次「居民请求」。</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>多冷的隆冬</t>
+          <t>QUESTFAILED</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>因为严寒而倒下··</t>
+          <t>跟丢了悬赏自标··</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>祭司、公主与记事者</t>
+          <t>多冷的隆冬</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>获得雪葬之都的宝物。</t>
+          <t>因为严寒而倒下··</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>逆子的归乡</t>
+          <t>祭司、公主与记事者</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>循着过去的考察队中某人的路径，抵达他启程返乡的地方。</t>
+          <t>获得雪葬之都的宝物。</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1153,12 +1153,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>千年雪藏的事</t>
+          <t>逆子的归乡</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>了解过去一支雪山考察队的结局。</t>
+          <t>循着过去的考察队中某人的路径，抵达他启程返乡的地方。</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>无果的远征</t>
+          <t>千年雪藏的事</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>发现很多遗迹机器的遗·</t>
+          <t>了解过去一支雪山考察队的结局</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>没能讲出的故事</t>
+          <t>无果的远征</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>在意想不到之处，结识了意想不到的朋友</t>
+          <t>发现很多遗迹机器的遗·</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>一览众山小</t>
+          <t>没能讲出的故事</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>抵达龙脊雪山的最高峰。</t>
+          <t>在意想不到之处，结识了意想不到的朋友。</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>一个冬天的童话</t>
+          <t>一览众山小</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>在雪堆下发现了冰晶蝶</t>
+          <t>抵达龙脊雪山的最高峰。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>猎人变成了猎物</t>
+          <t>一个冬天的童话</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>被大雪猪王击败。</t>
+          <t>在雪堆下发现了冰晶蝶。</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>冷静点！</t>
+          <t>猎人变成了猎物</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>击败处于狂暴状态下的大雪猪王</t>
+          <t>被大雪猪王击败。</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1328,12 +1328,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[一口吃掉了几十万摩拉！1</t>
+          <t>冷静点！</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>掌握「稠汁蔬菜炖肉]的制作方法。</t>
+          <t>击败处于狂暴状态下的大雪猪王</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>天雷圣裁</t>
+          <t>[一口吃掉了几十万摩拉！」</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>被落雷击中。</t>
+          <t>掌握「稠汁蔬菜炖肉J的制作方法。</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>接近天空的地方?·</t>
+          <t>天雷圣裁</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>登上复原后的寒天之钉。</t>
+          <t>被落雷击中。</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>嬉变核素</t>
+          <t>接近天空的地方?·</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>利用参量质变仪」，完成一次物质质变</t>
+          <t>登上复原后的寒天之钉。</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>·你其实听得见吧？</t>
+          <t>嬉变核素</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>派蒙也会累的。</t>
+          <t>利用「参量质变仪」，完成一次物质质变。</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>哟曜曜，再来瓶蒲公英酒</t>
+          <t>·你其实听得见吧？</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>登上「浪船」。</t>
+          <t>派蒙也会累的。</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[乘风破浪真君」</t>
+          <t>哟曜曜，再来瓶蒲公英酒</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>持续搭乘T浪船]达到一定时间</t>
+          <t>登上「浪船」。</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Nice boat!</t>
+          <t>[乘风破浪真君」</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>与其他玩家交换「浪船】</t>
+          <t>持续搭乘「浪船』达到一定时间。</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>·其名为「玛丽·塞勒斯特」</t>
+          <t>Nice boat！</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>「浪船]被破坏了…</t>
+          <t>与其他玩家交换「浪船」。</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1553,12 +1553,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Deja Vu!</t>
+          <t>·其名为「玛丽·塞勒斯特」</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>持续高速行驶「浪船】达到一定时间</t>
+          <t>『浪船]被破坏了··</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>山田五的木</t>
+          <t>Deja Vu!</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>多次识破妖狸的法术。</t>
+          <t>持续高速行驶「浪船】达到一定时间</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[鲸井御殿流手术J</t>
+          <t>山田五的木枪</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>陪鲸井小弟玩「手游戏」</t>
+          <t>多次识破妖狸的法术。</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>本朝手翰戏小传</t>
+          <t>[鲸井御殿流手术J</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>其他玩家参加了你所设置的「手鞠游戏」</t>
+          <t>陪鲸井小弟玩T手游戏】</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>派蒙的幸运日！</t>
+          <t>本朝手鞠戏小传</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>在鸣神大社，抽中「大吉]的签文</t>
+          <t>其他玩家参加了你所设置的「手鞠游戏」</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>地宫传奇···才怪！</t>
+          <t>派蒙的幸运日！</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>发掘失落记忆的冒险本身，又向尝不是宝藏呢？</t>
+          <t>在鸣神大社，抽中「大吉』的签文。</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>岩藏武艺帐</t>
+          <t>地宫传奇··才怪！</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>见证岩藏流的末路。</t>
+          <t>发掘失落记忆的冒险本身，又何尝不是宝藏呢？</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>开门放狗</t>
+          <t>岩藏武艺帐</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>解放寅太郎。</t>
+          <t>见证岩藏流的末路。</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>情非得已</t>
+          <t>开门放狗</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>打开广海的心结。</t>
+          <t>解放寅太郎。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>不再变老</t>
+          <t>情非得已</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>向殁者献上花束。</t>
+          <t>打开广海的心结。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>为人的条件？</t>
+          <t>不再变老</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>见证武士的宿命。</t>
+          <t>向者献上花束。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>无灵魂处的灵魂</t>
+          <t>为人的条件？</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>找到赞津的遗物。</t>
+          <t>见证武士的宿命。</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>荒岛朝圣指南</t>
+          <t>无灵魂处的灵魂</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>找到八岛所有的神。</t>
+          <t>找到鹫津的遗物。</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>三千里的起点</t>
+          <t>荒岛朝圣指南</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>在踏籍砂和鸣神岛找到长次。</t>
+          <t>找到八岛所有的神。</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FKnockKnockJ</t>
+          <t>三千里的起点</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>打开「御影炉心』周围的护罩。</t>
+          <t>在踏籍砂和鸣神岛找到长次</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>神无家作战计划</t>
+          <t>FKnockKnockJ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>打倒复苏的「无相之雷」。</t>
+          <t>打开「御影炉心』周围的护罩。</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>挥刀的理由</t>
+          <t>神无家作战计划</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>让T公义]恢复清醒。</t>
+          <t>打倒复苏的「无相之雷」。</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大业物</t>
+          <t>挥刀的理由</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>挑战并轻松击败「公义1。</t>
+          <t>让「公义]恢复清醒。</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>重开之花</t>
+          <t>大业物</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>获得叶名山薰的赠礼。</t>
+          <t>挑战并轻松击败「公义】。</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>承蒙惠顾</t>
+          <t>重开之花</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>获得阿敬的宝箱里的大奖。</t>
+          <t>获得叶名山薰的赠礼。</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>雷之祸乱</t>
+          <t>承蒙惠顾</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>因为「雷祸]的伤害而倒下</t>
+          <t>获得阿敬的宝箱里的大奖</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>框架外收获</t>
+          <t>雷之祸乱</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>用「神居岛崩炮】轰开一处藏宝地</t>
+          <t>因为「雷祸]的伤害而倒下·</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大踏鞘长正</t>
+          <t>框架外收获</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>获得过去某把武器的绘图，</t>
+          <t>用1神居岛崩炮】轰开一处藏宝地</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>「……腐肉朽处花争妍。！</t>
+          <t>大踏鞘长正</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>终结十位已武士的怨念。</t>
+          <t>获得过去某把武器的绘图</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[这就是我的放生路线！</t>
+          <t>「…腐肉朽处花争妍。！</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>鱼儿在挣扎状态中逃脱，</t>
+          <t>终结十位已武士的怨念。</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>「切，原来是来钓鱼的?··」</t>
+          <t>[这就是我的放生路线！1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>抛竿时吓跑了鱼儿。</t>
+          <t>鱼儿在挣扎状态中逃脱</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>人鱼童话</t>
+          <t>「切，原来是来钓鱼的··J</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>帮助久美解开心结。</t>
+          <t>抛竿时吓跑了鱼儿。</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>远海牧人的宝藏</t>
+          <t>人鱼童话</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>从酒醉的狂言中，寻到大海贼最宝贵的遗产。</t>
+          <t>帮助久美解开心结。</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>诚实高个儿西尔弗</t>
+          <t>远海牧人的宝藏</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>找到林藏理藏的所有宝藏</t>
+          <t>从酒醉的狂言中，寻到大海贼最宝贵的遗产。</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>是时候征服海岛了！</t>
+          <t>诚实高个儿西尔弗</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>解除雷神神处的封印。</t>
+          <t>找到林藏理藏的所有宝藏</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>池中宅邸</t>
+          <t>是时候征服海岛了！</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>解锁「池中宅邸」。</t>
+          <t>解除雷神神处的封印。</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>小猎犬号搁浅记</t>
+          <t>池中宅邸</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>跟随无名学者的脚步探索海岛</t>
+          <t>解锁「池中宅邸」。</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>［奴家是猫。名字叫寝子】</t>
+          <t>小猎犬号搁浅记</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>拜见「浅濑神社代宫司』子。</t>
+          <t>跟随无名学者的脚步探索海</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>云中的猫</t>
+          <t>［奴家是猫。名字叫寝子」</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>和「浅濑神社代营司」寝子一起，见证某件迟来的「好事！</t>
+          <t>拜见「浅濑神社代宫司』寝子。</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>无可质疑的宝藏</t>
+          <t>云中的猫</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>「都说了只有一幅画啊！，</t>
+          <t>和「浅濑神社代宫司】寝子一起，见证某件迟来的「好事」</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>乡愁的另一头</t>
+          <t>无可质疑的宝藏</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>为太田太郎在清赖岛上拍摄四张画片。</t>
+          <t>「都说了只有一幅画啊！』</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>它和它·…·</t>
+          <t>乡愁的另一头</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>…连连看？</t>
+          <t>为太田太郎在清籁岛上拍摄四张画片！</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>戴维·琼斯的箱子</t>
+          <t>它和它·…·</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>解开「清籁丸内的所有机关</t>
+          <t>…连连看？</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大天云屿</t>
+          <t>戴维·琼斯的箱子</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>解开天云屿之底的机关。</t>
+          <t>解开「清籁丸』内的所有机关</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>进入夜雾之门</t>
+          <t>大天云屿</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>适应了鹤观的异常天候。</t>
+          <t>解开天云屿之底的机关。</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NihilSubCaligineNovum</t>
+          <t>进入夜雾之门</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>似乎又恢复了原状…·</t>
+          <t>适应了鹤观的异常天候</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>白之幻影</t>
+          <t>NihitSubCaligineNovum</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>与昔日的幻影相遇。</t>
+          <t>似乎又恢复了原状…·</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>双城记</t>
+          <t>白之幻影</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>即便是鹤观，似乎也建立在古老遗迹的残上</t>
+          <t>与昔日的幻影相遇。</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>《我作为冒险家的一生》</t>
+          <t>双城记</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>协助罗尔德，完成冒险日志</t>
+          <t>即使是鹤观，似乎也建立在古老遗迹的残彰上</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>雾里明灯</t>
+          <t>《我作为冒险家的一生》</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>点亮逢岳之野所有的雷石。</t>
+          <t>协助罗尔德，完成冒险日志。</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2678,12 +2678,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>「被、被派蒙吃掉·…·</t>
+          <t>雾里明灯</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>原本拿到的「木簧笛」，却意外消失了。</t>
+          <t>点亮逢岳之野所有的雷石。</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>猜想时间</t>
+          <t>「被、被派蒙吃掉·…·</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>从比过去更遥远的过去，来到了今天?·</t>
+          <t>原本拿到的「木簧笛」，却意外消失了。</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>茂知之壳</t>
+          <t>猜想时间</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>解锁「茂知之壳。</t>
+          <t>从比过去更遥远的过去，来到了今天··</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>渡过雾的河流</t>
+          <t>茂知之壳</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>终于，抵达雾海彼端…·</t>
+          <t>解锁「茂知之壳」。</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>「让你再飞！」</t>
+          <t>渡过雾的河流</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>使用道具T四方八方之网】捕获识只晶蝶</t>
+          <t>终于，抵达雾海彼端…·</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>面对捕网网眼时的焦虑</t>
+          <t>「让你再飞！」</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>使用道具「四方八方之网]捕获识团雀</t>
+          <t>使用道具T四方八方之网】捕获识晶蝶。</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>海底几万里？</t>
+          <t>面对捕网网眼时的焦虑</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>进入渊下宫。</t>
+          <t>使用道具「四方八方之网]捕获1只团雀</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>野马泉，又名摩利支</t>
+          <t>海底几万里？</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>解开「阳炎之门』的秘密。</t>
+          <t>进入渊下宫。</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>日月回轮</t>
+          <t>野马泉，又名摩利支</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>转换一次「白夜]与「常夜」</t>
+          <t>解开「阳炎之门』的秘密</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>丁智圆行方』小锦旗</t>
+          <t>日月回轮</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>获得地走官的认可。</t>
+          <t>转换一次「白夜]与「常夜」。</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>『明察冬鳗】小锦旗</t>
+          <t>「智圆行方J小锦旗</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[常世无双J小锦旗</t>
+          <t>「明察冬鳗J小锦旗</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[下次，试试社会派··」</t>
+          <t>[常世无双J小锦旗</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>完成伊达的迷宫挑战。</t>
+          <t>获得地走官的认可。</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>【常世大神倘若有知···</t>
+          <t>[下次，试试社会派··」</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>归还所有的图书，并且…</t>
+          <t>完成伊达的迷宫挑战。</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3028,12 +3028,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>「真的有区别吗···J</t>
+          <t>[常世大神倘若有知···」</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>在所有特别的位置上坐下过。</t>
+          <t>归还所有的图书，并且</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>阴阳割昏晓</t>
+          <t>「真的有区别吗···J</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>前往大日御舆之顶。</t>
+          <t>在所有特别的位置上坐下过。</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>射程之内好说话</t>
+          <t>阴阳割昏晓</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>完成弓术的挑战。</t>
+          <t>前往大日御舆之顶。</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>薄缘的道与光与胤</t>
+          <t>射程之内好说话</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>归还岩藏宗主的刀。</t>
+          <t>完成弓术的挑战。</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>一把钥匙开一把锁</t>
+          <t>薄缘的道与光与胤</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>找到所有的键纹。</t>
+          <t>归还岩藏宗主的刀。</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>无坚不摧</t>
+          <t>一把钥匙开一把锁</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>在无相之岩复苏前，击碎所有复苏岩柱。</t>
+          <t>找到所有的键纹。</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>棱镜计划</t>
+          <t>无坚不摧</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>在无相之雷复苏前，摧毁所有复苏梭镜</t>
+          <t>在无相之岩复苏前，击碎所有复苏岩柱。</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>【这风晶蝶还蛮大的】</t>
+          <t>棱镜计划</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>在无相之风复苏前，吸收所有风之晶球。</t>
+          <t>在无相之雷复苏前，摧毁所有复苏梭镜</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[···不代表最终品质]</t>
+          <t>［这风晶蝶还蛮大的」</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>击败一个进行了四种元素转变的无相之风</t>
+          <t>在无相之风复苏前，吸收所有风之晶球。</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>…与巨像</t>
+          <t>[.…不代表最终品质]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>通过攻击要害，瘫痪遗迹守卫。</t>
+          <t>击败一个进行了四种元素转变的无相之风。</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>传球</t>
+          <t>了.··不代表最终品质]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>打落爆弹丘丘人手中的火史莱姆</t>
+          <t>击败一个进行了四种元素转变的无相之风</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>「一次··的攻击」</t>
+          <t>…与巨像</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>通过碎冰伤害，打败一名敌人。</t>
+          <t>通过攻击要害，瘫痪遗迹守卫</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>大黄金丘丘王</t>
+          <t>传球</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>在魔化状态结束前，击败丘丘岩盔王。</t>
+          <t>打落爆弹丘丘人手中的火史莱姆。</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>向无敌大胃王致敬</t>
+          <t>「一次…的攻击」</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>队伍中有四名角色同时处于饱腹状态。</t>
+          <t>通过碎冰伤害，打败一名敌人。</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>摧枯拉朽</t>
+          <t>大黄金丘丘王</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>造成超过50000的暴击伤害。</t>
+          <t>在魔化状态结束前，击败丘丘岩盔王。</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>神奇四·…·</t>
+          <t>向无敌大胃王致敬</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>使用四个相同元素属性的角色完成一次秘境挑战。</t>
+          <t>队伍中有四名角色同时处于饱腹状态。</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>「什么嘛。还不如冰雾花】</t>
+          <t>摧枯拉朽</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>不击破花冠弱点的情况下，击败急冻树。</t>
+          <t>造成超过50000的暴击伤害。</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>「总有比火更灼热的火」</t>
+          <t>神奇四·</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>不击破花冠弱点的情况下，击败爆炎树</t>
+          <t>使用四个相同元素属性的角色完成一次秘境挑战</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3478,12 +3478,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>异邦人与异邦人</t>
+          <t>「什么嘛。还不如冰雾花」</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>队伍中所有角色都不被「公子]标记的后续攻击命中的情况下。击败「公</t>
+          <t>不击破花冠弱点的情况下，击败急冻树。</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>力场侵蚀</t>
+          <t>[总有比火更灼热的火】</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>粉碎无相之雷的结界。</t>
+          <t>不击破花冠弱点的情况下，击败爆炎树</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>「·还有蜥蜴和斯波克】</t>
+          <t>异邦人与异邦人</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>同一个角色连续被猜拳三连击命中。</t>
+          <t>队伍中所有角色都不被「公子」标记的后续攻击命中的情况下。击败「公</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>基础不牢，地动山摇！</t>
+          <t>力场侵蚀</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>通过击碎核心停留的玄岩柱，使同一个无相之岩落地三次</t>
+          <t>粉碎无相之雷的结界。</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>基础再牢。也能摸倒！</t>
+          <t>?···还有蜥蜴和斯波克】</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>在不击碎玄岩柱的情况下，使无相之岩进人复苏模式</t>
+          <t>同一个角色连续被猜拳三连击命中。</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>千风散尽还复来</t>
+          <t>基础不牢，地动山摇！</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>在一场战斗中，吸收至少10个无相之风创造的元素晶球，</t>
+          <t>通过击碎核心停留的玄岩柱，使同一个无相之岩落地三次</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>珠心熔毁</t>
+          <t>基础再牢，也能倒：</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>摧毁爆炎树创造的炽热之种。</t>
+          <t>在不击碎玄岩柱的情况下，使无相之岩进入复苏模式</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>F··唯独死亡与债务不可避」</t>
+          <t>千风散尽还复来</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>击败处于隐蔽状态下的火之债务处理人</t>
+          <t>在一场战斗中，吸收至少10个无相之风创造的元素晶球。</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>「孤独地融化··J</t>
+          <t>珠心熔毁</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>在冰萤术士操控的冰萤全部存在的情况下，击败冰萤术士。</t>
+          <t>摧毁爆炎树创造的炽热之种。</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3703,12 +3703,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>这也算四风守护？</t>
+          <t>[…唯独死亡与债务不可避」</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>触发过风拳先锋军所有元素类型的吸收反击后，击败他。</t>
+          <t>击败处于隐蔽状态下的火之债务处理人，</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>碰·一·碰</t>
+          <t>「孤独地融化…·</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>利用护盾反制岩龙蜥的某一式冲撞攻击。</t>
+          <t>在冰萤术士操控的冰萤全部存在的情况下，击败冰萤术士。</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>反弹！</t>
+          <t>这也算四风守护？</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>利用护盾，反制古岩龙蜥的！原岩喷吐1攻击。</t>
+          <t>触发过风拳先锋军所有元素类型的吸收反击后，击败他。</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>悉数奉还！</t>
+          <t>碰·一·碰</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>利用同种元素类型或岩元素的护盾，反制古岩龙蜥的「原岩喷吐」攻击，并造成大量你</t>
+          <t>利用护盾反制岩龙蜥的某一式冲撞攻击。</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>我们之中最坚强的灵魂</t>
+          <t>反弹！</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>击败所有形态的若陀龙王。</t>
+          <t>利用护盾，反制古岩龙蜥的T原岩喷吐】攻击。</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>「……一日之寒」</t>
+          <t>悉数奉还！</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>击败处于虚弱状态的无相之冰。</t>
+          <t>利用同种元素类型或岩元素的护盾，反制古岩龙蜥的「原岩喷吐』攻击，并造成大量你</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>「冰冻三尺……·』</t>
+          <t>我们之中最坚强的灵魂</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>击败一个复苏了三次的无相之冰。</t>
+          <t>击败所有形态的若陀龙王</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>只要我跑的够快</t>
+          <t>「.…一日之寒」</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>不被影击中的情况下，击败魔偶剑鬼。</t>
+          <t>击败处于虚弱状态的无相之冰</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>堂堂正正的决斗！</t>
+          <t>「冰冻三尺……』</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>不触发T柱死之面]的格挡的情况下，击败魔偶剑鬼。</t>
+          <t>击败一个复苏了三次的无相之冰</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>…全靠我们自己</t>
+          <t>只要我跑的够快</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>不触发原岩喷吐』的反噬的情况下，击败古岩龙蜥</t>
+          <t>不被幻影击中的情况下，击败魔偶剑鬼</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>把自己烧着了吧？</t>
+          <t>堂堂正正的决斗！</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>击败一个复燃过两次的无相之火</t>
+          <t>不触发柱死之面]的格挡的情况下，击败魔偶剑鬼。</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SmellsLikeAnimalSpirit！</t>
+          <t>…全靠我们自己</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>被无相之火的拟态三连击命中后，击败它。</t>
+          <t>不触发「原岩喷吐』的反噬的情况下，击败古岩龙蜥。</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>机元突破</t>
+          <t>把自己烧着了吧？</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>在一场战斗中，使恒常机关阵列的所有四种遗迹机兵均进入瘫痪状态，并击败恒常机</t>
+          <t>击败一个复燃过两次的无相之火</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>无关机械请立即离场！</t>
+          <t>SmellsLkeAnimalSpirit!</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>不击败任何恒常机关阵列的遗迹机兵的情况下，击败恒常机关阵列。</t>
+          <t>被无相之火的拟态三连击命中后，击败它。</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>遇火斩火</t>
+          <t>机元突破</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>在海乱鬼·炎威的武器附有烈焰的情况下，击败海乱鬼·炎威。</t>
+          <t>在一场战斗中，使恒常机关阵列的所有四种遗迹机兵均进入瘫痪状态，并击败恒常机</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>遇雷切雷</t>
+          <t>无关机械请立即离场！</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>在海乱鬼·雷腾的武器附有电流的情况下，击败海乱鬼·雷腾</t>
+          <t>不击败任何恒常机关阵列的遗迹机兵的情况下，击败恒常机关阵列。</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>雷自东来</t>
+          <t>遇火斩火</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>被雷丘丘暴徒引来的落雷击中..</t>
+          <t>在海乱鬼·炎威的武器附有烈焰的情况下，击败海乱鬼·炎威。</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AKitlwithoutWater</t>
+          <t>遇雷切雷</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>不击败任何「水滴]的情况下（无相之水恢复时除外），击败无相之水</t>
+          <t>在海乱鬼·雷腾的器附有电流的情况下，击败海乱鬼·雷腾</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>海洋生物学者，欧拉！</t>
+          <t>雷自东来</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>被无相之水幻化的某种生物击中.·</t>
+          <t>被雷丘丘暴徒引来的落雷击中..</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>无法传达的恋波</t>
+          <t>AKiuwithoutWater</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>不曾被探针的侦测锁定的情况下，击败雷音权现</t>
+          <t>不击败任何「水滴]的情况下（无相之水恢复时除外），击败无相之水</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>雷音坠落</t>
+          <t>海洋生物学者，欧拉！</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>击败飞翔的雷音权现。</t>
+          <t>被无相之水幻化的某种生物击中..</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>红莲冰河与红莲魔女</t>
+          <t>无法传达的恋波</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>在不破坏任何「炎之心』与「霜之眼]的情况下，击败「女士」。</t>
+          <t>不曾被探针的侦测锁定的情况下，击败雷音权现！</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>漫长旅途的开端</t>
+          <t>雷音坠落</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>完成蒙德的魔神任务。</t>
+          <t>击败飞翔的雷音权现。</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>捕风的异乡人</t>
+          <t>红莲冰河与红连魔女</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>完成「捕风的异乡人」</t>
+          <t>在不破坏任何「炎之心』与「霜之眼]的情况下，击败「女士』。</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>为了没有眼泪的明天</t>
+          <t>漫长旅途的开端</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>完成「为了没有眼泪的明天」</t>
+          <t>完成蒙德的魔神任务。</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>巨龙与自由之歌</t>
+          <t>捕风的异乡人</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>完成「巨龙与自由之歌」。</t>
+          <t>完成「捕风的异乡人」</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>听凭风引</t>
+          <t>为了没有眼泪的明天</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>掌握「风的元素力。</t>
+          <t>完成「为了没有眼泪的明天」</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>·还是新的风暴呢？</t>
+          <t>巨龙与自由之歌</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>驱逐袭击蒙德城的巨龙。</t>
+          <t>完成『巨龙与自由之歌」。</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>骑士精神</t>
+          <t>听凭风引</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>成为西风骑士团的荣誉骑士。</t>
+          <t>掌握「风]的元素力。</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>骑士团的诸多麻烦</t>
+          <t>?还是新的风暴呢？</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>没能「借]到圣物··但认识了「骑士团的麻烦】。</t>
+          <t>驱逐袭击蒙德城的巨龙</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>风向是会转变的</t>
+          <t>骑士精神</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>被特瓦林所救。</t>
+          <t>成为西风骑士团的荣誉骑士。</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>浮世浮生千岩间</t>
+          <t>骑士团的诸多麻烦</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>完成「浮世浮生千岩间」。</t>
+          <t>没能「借』到圣物…·但认识了骑士团的麻烦」。</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>辞行久远之</t>
+          <t>风向是会转变的</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>完成「辞行久远之」</t>
+          <t>被特瓦林所救。</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4528,12 +4528,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>异乡异客</t>
+          <t>浮世浮生千岩间</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>在下本地人不会去的景点】被外地人搭救</t>
+          <t>完成「浮世浮生千岩间」</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>…五丘丘怎么了？</t>
+          <t>辞行久远之</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>与小昊约定一起玩。</t>
+          <t>完成「辞行久远之」。</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>春香窑的『副业」</t>
+          <t>异乡异客</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>了解T岩王帝君】中意的香膏品类</t>
+          <t>在本地人不会去的景点』被外地人搭救。</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>派蒙都进不去吧？</t>
+          <t>·五丘丘怎么了？</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>将萍姥姥的「壶]打扫干净。</t>
+          <t>与小昊约定一起玩。</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>『勇敢的冒险者啊·…·」</t>
+          <t>春香窑的「副业」</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>不被摩拉束缚手脚，委托他人完成工作</t>
+          <t>了解T岩王帝君】中意的香膏品类</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>文物保护</t>
+          <t>派蒙都进不去吧？</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>虽然无缘得见「椰羊』··但修好了古迹</t>
+          <t>将萍姥姥的「壶』打扫干净。</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4678,12 +4678,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>漫长的送别</t>
+          <t>[勇敢的冒险者啊··」</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>筹备好「送仙典仪】所需的道具。</t>
+          <t>不被摩拉束缚手脚，委托他人完成工作。</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>史莱姆，糖适量</t>
+          <t>文物保护</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>精心制作糖霜史莱姆。</t>
+          <t>虽然无缘得见「椰羊」.但修好了古迹。</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>一步登天</t>
+          <t>漫长的送别</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>登上俯瞰璃月港的「空中楼阁</t>
+          <t>筹备好「送仙典仪]所需的道具</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4753,12 +4753,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>审判之时···还没到</t>
+          <t>史莱姆，糖适量</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>击败『公子」。</t>
+          <t>精心制作糖霜史莱姆。</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>轨道抛掷</t>
+          <t>一步登天</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>击「游涡之魔神】</t>
+          <t>登上俯瞰璃月港的T空中楼阁】</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>终有一别</t>
+          <t>审判之时···还没到</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>参与「送仙典仪」。</t>
+          <t>击败「公子」。</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>迫近的客星</t>
+          <t>轨道抛掷</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>完成「迫近的客星」。</t>
+          <t>击退「涡之魔神】。</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>哎呀！海盗！</t>
+          <t>终有一别</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>陪璐璐、阿飞与小蒙各玩一次海盗游戏</t>
+          <t>参与「送仙典仪」。</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>厨子与渔夫</t>
+          <t>迫近的客星</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>完成「独钓江雪』与「勿言勿笑」。</t>
+          <t>完成「迫近的客星】。</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>「知天命·…·J</t>
+          <t>哎呀！海盗！</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>在好兆头』中，帮助志华找到五个爱情运来临的征</t>
+          <t>陪璐璐、阿飞与小蒙各玩一次海盗游戏</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>更上一层楼</t>
+          <t>厨子与渔夫</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>帮助淮安修复望舒客栈的断桥。</t>
+          <t>完成「独钓江雪]与「勿言勿笑】。</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>时也运也</t>
+          <t>「知天命·…·』</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>次就选中了最高价值的璞石！</t>
+          <t>在「好兆头』中，帮助志华找到五个爱情运来临的征兆。</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>凑合…也能用</t>
+          <t>更上一层楼</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>只带给赫尔曼木桩的材料。</t>
+          <t>帮助淮安修复望舒客栈的断桥，</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5003,12 +5003,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>学者与『学者」</t>
+          <t>时也运也</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>完成『『遗落』的文物」与夺宝』小行动」。</t>
+          <t>次就选中了最高价值的璞石。</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>故人久未归</t>
+          <t>凑合··也能用</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>完成「久久望故人】任务。</t>
+          <t>只带给赫尔曼木桩的材料。</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5053,12 +5053,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>这本小说真厉害！</t>
+          <t>学者与「学者」</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>偷看常九爷的书稿。</t>
+          <t>完成『『遗落』的文物」与门夺宝』小行动」。</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>喂——有人吗？</t>
+          <t>故人久未归</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>在离岛中发现一处秘密通道。</t>
+          <t>完成T久久望故人】任务。</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>猜猜我是谁？</t>
+          <t>这本小说真厉害！</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>获知「枕玉』老师的真实身份。</t>
+          <t>偷看常九爷的书稿。</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>她和她的猫</t>
+          <t>喂——有人吗？</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>陪寝子前往影向山，寻找「阿响]的痕迹</t>
+          <t>在离岛中发现一处秘密通道</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>除了时间。什么也没丢</t>
+          <t>猜猜我是谁？</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>解开两座日暑的秘密。</t>
+          <t>获知「枕玉』老师的真实身份。</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5178,12 +5178,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>与一位往普神灵的谈话</t>
+          <t>她和她的猫</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>了解一位往普神灵的故事。</t>
+          <t>陪寝子前往影向山，寻找「阿响」的痕迹</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>卧龙藏</t>
+          <t>除了时间。什么也没丢</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>了解关于「]的故事。</t>
+          <t>解开两座日暑的秘密。</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>战祸不息</t>
+          <t>与一位往昔神灵的谈话</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>将某个古老遗迹中的宝物卖个好价钱··</t>
+          <t>了解一位往神灵的故事。</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>澡华池之影</t>
+          <t>卧龙藏</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>帮助梵米尔取到他想要的景致。</t>
+          <t>了解关于「蜗】的故事。</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>零号玩家</t>
+          <t>战祸不息</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>陪小姜玩一场简单的游戏。</t>
+          <t>将某个古老遗迹中的宝物卖个好价钱··</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5303,12 +5303,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>盘木森森。荫蔽家庭</t>
+          <t>澡华池之影</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>见证元鸿一家的故事。</t>
+          <t>帮助梵米尔取到他想要的景致。</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>命运初动</t>
+          <t>零号玩家</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>完成任务「拾枝者·戴因斯雷布」。</t>
+          <t>陪小姜玩一场简单的游戏</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5353,12 +5353,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>贼蔻、狂人与漆黑之谜</t>
+          <t>盘木森森。荫蔽家庭</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>确认大盗宝家的异状。</t>
+          <t>见证元鸿一家的故事。</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>命运交叉的废都</t>
+          <t>命运初动</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>逃离异的遗迹。</t>
+          <t>完成任务「拾枝者·戴因斯雷布」。</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>将诸神的力量付之一笑</t>
+          <t>贼蔻、狂人与漆黑之谜</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>得知「命运的织机】正在进行中…·</t>
+          <t>确认大盗宝家的异状。</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>狂言破碎之时</t>
+          <t>命运交叉的废都</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>击退深渊使徒。</t>
+          <t>逃离异的遗迹。</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5453,12 +5453,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>我们终将重逢</t>
+          <t>将诸神的力量付之一笑</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>完成「我们终将重逢]。</t>
+          <t>得知「命运的织机」正在进行中…·</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>雷电将至</t>
+          <t>狂言破碎之时</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>得到搭乘死兆星号前往稻妻的机会。</t>
+          <t>击退深渊使徒。</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>振袖秋风问红叶</t>
+          <t>我们终将重逢</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>完成「振袖秋风问红叶</t>
+          <t>完成「我们终将重逢」。</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>朝着雷霆骤雨</t>
+          <t>雷电将至</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>抵达「异人居留地】。</t>
+          <t>得到搭乘「死兆星』号前往稻妻的机会。</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5553,12 +5553,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>格三十郎</t>
+          <t>振袖秋风问红叶</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>顺利押送货物，离开离岛。</t>
+          <t>完成「振袖秋风问红叶」。</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>所有人的愿望之诗</t>
+          <t>朝着雷霆骤雨</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>接触「永恒]的象征，「千手百眼神像】。</t>
+          <t>抵达「异人居留地」。</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>屏风后的白鹭公主</t>
+          <t>格三十郎</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>与神里家的大小姐正式会面</t>
+          <t>顺利押送货物，离开离岛。</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>御守、仁义、天下一</t>
+          <t>所有人的愿望之诗</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>完成I三个小心愿」。</t>
+          <t>接触「永恒]的象征，「千手百眼神像」。</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>牢屋敷花火祭</t>
+          <t>屏风后的白鹭公主</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>成功营救正胜。</t>
+          <t>与神里家的大小姐正式会面</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5678,12 +5678,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>直面雷光</t>
+          <t>御守、仁义、天下一</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>成为「眼狩令』的目标</t>
+          <t>完成I三个小心愿」。</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>异人一</t>
+          <t>牢屋敷花火祭</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>顺利融入反抗军中。</t>
+          <t>成功营救正胜。</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5728,12 +5728,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>不动鸣神。恒常乐士</t>
+          <t>直面雷光</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>完成「不动鸣神，恒常乐土』。</t>
+          <t>成为「眼狩令]的目标。</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>无念无想，泡影断灭</t>
+          <t>异人一</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>完成「无念无想，泡影断灭】。</t>
+          <t>顺利融入反抗军中。</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SWORDFISHII</t>
+          <t>不动鸣神。恒常乐土</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>获得剑鱼二番队的认可。</t>
+          <t>完成「不动鸣神，恒常乐土」。</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>虽是露水般的愿望?··</t>
+          <t>无念无想，泡影断灭</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>找到派发邪眼的幕后黑手。</t>
+          <t>完成「无念无想，泡影断灭】</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>特大号花火祭</t>
+          <t>SWORDFISHII</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>燃放烟花引开守卫</t>
+          <t>获得剑鱼二番队的认可</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>御前生死斗</t>
+          <t>虽是露水般的愿望?··</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>在「御前决斗中，获得胜利。</t>
+          <t>找到派发邪眼的幕后黑手。</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>「他们]的愿望·</t>
+          <t>特大号花火祭</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>回应「千手百眼神像】中所有的愿望</t>
+          <t>燃放烟花引开守卫。</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>千手百眼，天下人间</t>
+          <t>御前生死斗</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>完成「千手百眼，天下人间」。</t>
+          <t>在「御前决斗』中，获得胜利。</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>『诸事平安」</t>
+          <t>「他们]的愿望?·</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>与王平安一起重修铜雀的庙宇。</t>
+          <t>回应1千手百眼神像】中所有的愿望</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>群玉临空</t>
+          <t>千手百眼，天下人间</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>完成群玉阁重建工作。</t>
+          <t>完成「千手百眼，天下人间1</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -5978,12 +5978,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>沧海生威</t>
+          <t>「诸事平安」</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>击退「漩涡的余威】跋罩。</t>
+          <t>与王平安一起重修铜雀的庙宇。</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>前尘一梦</t>
+          <t>群玉临空</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>见证村庄历史中的真相</t>
+          <t>完成群玉阁重建工作。</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>风起鹤归</t>
+          <t>沧海生威</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>完成「风起鹤归」。</t>
+          <t>击退「漩涡的余威】罩。</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6045,20 +6045,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>美妙旅程：序</t>
+          <t>前尘一梦</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>完成「美妙旅程」，解锁全部结局，</t>
+          <t>见证村庄历史中的真相</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6070,20 +6070,20 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>露雳闪雷真君</t>
+          <t>风起鹤归</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>见证班尼特足以影响天气的厄运</t>
+          <t>完成「风起鹤归」。</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6099,16 +6099,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>诸邪退散</t>
+          <t>美妙旅程：序</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>完成寻妖觅邪记』，解锁全部结局。</t>
+          <t>完成「美妙旅程」，解锁全部结局，</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>辣椒英雄</t>
+          <t>露雳闪雷真君</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>制作错误的冰棍，引发重云1纯阳之体】的剧烈反应</t>
+          <t>见证班尼特足以影响天气的厄运</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6149,16 +6149,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>能跨越的边界线</t>
+          <t>诸邪退散</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>完成「治愈的清泉」，解锁全部结局。</t>
+          <t>完成寻妖觅邪记』，解锁全部结局。</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6174,16 +6174,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>偶像的可靠防线</t>
+          <t>辣椒英雄</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>成功劝走艾伯特和其他芭芭拉的粉丝</t>
+          <t>制作错误的冰棍，引发重云1纯阳之体】的剧烈反应</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>蒙德城的麻辣传说</t>
+          <t>能跨越的边界线</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>品尝芭芭拉的辣味饮料。</t>
+          <t>完成「治愈的清泉」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>完美而坚强的女仆</t>
+          <t>偶像的可靠防线</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>完成「骑士修行之道」，解锁全部结局，</t>
+          <t>成功劝走艾伯特和其他芭芭拉的粉丝</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6249,16 +6249,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>「…因为。」</t>
+          <t>蒙德城的麻辣传说</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>帮助诺艾尔找到自己强大的原因，</t>
+          <t>品尝芭芭拉的辣味饮料。</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6274,16 +6274,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>只有玫瑰知道的世界</t>
+          <t>完美而坚强的女仆</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>阅读诺艾尔的学习笔记。</t>
+          <t>完成「骑士修行之道！解锁全部结局。</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6299,16 +6299,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>消除焦虑的最好办法</t>
+          <t>「……因为。」</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>完成「骑士备考之道」，解锁全部结局</t>
+          <t>帮助诺艾尔找到自己强大的原因</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6324,16 +6324,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>女仆骑士不会受伤</t>
+          <t>只有玫瑰知道的世界</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>与诺艾尔一起听过《异国骑士璃月行记》。</t>
+          <t>阅读诺艾尔的学习笔记</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6349,16 +6349,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>迪奥娜特调。搅拌。不要摇</t>
+          <t>消除焦虑的最好办法</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>完成猫与特调酒」，解锁全部结局。</t>
+          <t>完成1骑士备考之道！解锁全部结局。</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6374,16 +6374,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>但是，代价是…·</t>
+          <t>女仆骑士不会受伤</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>帮助迪奥娜找到特制基底饮品。</t>
+          <t>与诺艾尔一起听过《异国骑士璃月行记》。</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6399,16 +6399,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>猫咪殿下</t>
+          <t>迪奥娜特调，搅拌，不要摇</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>将所有猫咪带回「猫尾酒馆】。</t>
+          <t>完成「猫与特调酒」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>皆大欢喜</t>
+          <t>但是，代价是·…·</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>完成「家政官的日常工作」，解锁全部结局，</t>
+          <t>帮助迪奥娜找到特制基底饮品，</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6449,16 +6449,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>家政高手</t>
+          <t>猫咪殿下</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>在规定时间内完成大扫除。</t>
+          <t>将所有猫咪带回猫尾酒馆」。</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6474,16 +6474,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>沧海不归客</t>
+          <t>皆大欢喜</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>与托马一起见证犬少将的故事</t>
+          <t>完成「家政官的日常工作」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6499,16 +6499,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>『高]人一等</t>
+          <t>家政高手</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>完成「鸣呼流·生长之术」，解锁全部结局。</t>
+          <t>在规定时间内完成大扫除。</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>骆级忍者</t>
+          <t>沧海不归客</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>在敏捷度训练中获得早抽的最高评价。</t>
+          <t>与托马一起见证犬少将的故事</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>料理效果：移动速度降低</t>
+          <t>「高」人一等</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>没能劝阻早袖的暴饮暴食·</t>
+          <t>完成鸣呼流·生长之术』，解锁全部结局，</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6574,16 +6574,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>海大将</t>
+          <t>骆级忍者</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>完成「犬大将的特别行动」，解锁全部结局</t>
+          <t>在敏捷度训练中获得早袖的最高评价</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6599,16 +6599,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>说还是不说。这是个问题，</t>
+          <t>料理效果：移动速度降低</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>在八重堂察觉了希娜小姐的真实身份</t>
+          <t>没能劝阻早抽的暴饮暴食?·</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -6624,16 +6624,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>南十字荣誉船员</t>
+          <t>海大将</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>完成「南十字闪耀时」，解锁全部结局。</t>
+          <t>完成「犬大将的特别行动」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -6649,16 +6649,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>洒下甘露三千担</t>
+          <t>说还是不说。这是个问题，</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>与北斗共同参加了轻策庄的宴会。</t>
+          <t>在八重堂察觉了希娜小姐的真实身份</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>孤云阁买家俱乐部</t>
+          <t>南十字荣誉船员</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>询问了北斗真正交易的内容。</t>
+          <t>完成「南十字闪耀时」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>天权伴星</t>
+          <t>洒下甘露三千担</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>完成「玉阁归客至」，解锁全部结局</t>
+          <t>与北斗共同参加了轻策庄的宴会。</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6724,16 +6724,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>过当防卫</t>
+          <t>孤云阁买家俱乐部</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>石激起千层浪，凝光的假期看来无福消受了。</t>
+          <t>询问了北斗真正交易的内容。</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -6749,16 +6749,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>曲终人未散</t>
+          <t>天权伴星</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>完成「弦歌知雅意」，解锁全部结局。</t>
+          <t>完成「玉阁归客至」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -6774,16 +6774,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>愿此刻永恒</t>
+          <t>过当防卫</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>与云董合影留念。</t>
+          <t>石激起千层浪，凝光的假期看来无福消受了、</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -6795,20 +6795,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>风与异乡人</t>
+          <t>曲终人未散</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>使用风元素吹散一株蒲公英。</t>
+          <t>完成「弦歌知雅意」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -6820,20 +6820,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>干峰万仞</t>
+          <t>愿此刻永恒</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>掌握「岩』的元素力。</t>
+          <t>与云董合影留念。</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -6849,16 +6849,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>流水叮咛</t>
+          <t>风与异乡人</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>集齐全套《清泉之心》。</t>
+          <t>使用风元素吹散一株蒲公英。</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -6874,16 +6874,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>神戟狂言凌云霄</t>
+          <t>干峰万仞</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>集齐全套《神霄折载录》。</t>
+          <t>掌握「岩』的元素力。</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -6899,16 +6899,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>醉客与狼的相遇</t>
+          <t>流水叮咛</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>集齐全套《醉客轶事》。</t>
+          <t>集齐全套《清泉之心》。</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>清泉、白马与月光</t>
+          <t>神戟狂言凌云霄</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>集齐全套《竹林月夜》。</t>
+          <t>集齐全套《神霄折载录》。</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -6945,20 +6945,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>灿若惊雷</t>
+          <t>醉客与狼的相遇</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>掌握「雷的元素力。</t>
+          <t>集齐全套《醉客轶事》。</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -6970,20 +6970,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>蒲公英的故乡</t>
+          <t>清泉、白马与月光</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>集齐全套《浦公英海的狐狸》。</t>
+          <t>集齐全套《竹林月夜》。</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -6999,16 +6999,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>友谊与性的价值</t>
+          <t>灿若惊雷</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>集齐全套《野猪公主》。</t>
+          <t>掌握「雷的元素力。</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7024,16 +7024,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>百亿尽夜的百亿青春</t>
+          <t>蒲公英的故乡</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>集齐全套《少女薇拉的忧郁》。</t>
+          <t>集齐全套《浦公英海的狐狸》。</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7049,16 +7049,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>丘丘学的扩张</t>
+          <t>友谊与性的价值</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>集齐全套《丘丘人习俗考察》。</t>
+          <t>集齐全套《野猪公主》。</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7070,20 +7070,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>冒险手艺</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>人铸赋形</t>
+          <t>百亿尽夜的百亿青春</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>锻造一把四星武器。</t>
+          <t>集齐全套《少女薇拉的忧郁》。</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -7095,20 +7095,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>冒险手艺</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>生存专家</t>
+          <t>丘丘学的扩张</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>掌握40种菜有的制作方法</t>
+          <t>集齐全套《丘丘人习俗考察》。</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7124,16 +7124,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>星级大厨</t>
+          <t>人铸赋形</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>40个料理食谱达到熟练</t>
+          <t>锻造一把四星武器。</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7145,20 +7145,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>冒险手艺</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>如日方升的旅程</t>
+          <t>生存专家</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>角色首次突破至6阶。</t>
+          <t>掌握40种菜有的制作方法</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7170,20 +7170,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>冒险手艺</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>百炼干锤</t>
+          <t>星级大厨</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>将一个武器突破至6阶。</t>
+          <t>40个料理食谱达到熟练</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7199,16 +7199,16 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>你所不知道的事</t>
+          <t>如日方升的旅程</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>将16个角色好感等级提升至10级</t>
+          <t>角色首次突破至6阶。</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7224,16 +7224,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>大地的馈赠</t>
+          <t>百炼干锤</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>获取800次「藏金之花或启示之花的馈藏</t>
+          <t>将一个武器突破至6阶。</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7249,16 +7249,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>英雄之礼</t>
+          <t>你所不知道的事</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>获得四星圣遗物。</t>
+          <t>将16个角色好感等级提升至10级</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7274,16 +7274,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>长歌回响</t>
+          <t>大地的馈赠</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>将一个四星圣遗物强化至最高等级</t>
+          <t>获取800次「藏金之花或启示之花的馈藏</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7299,16 +7299,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>神话秘藏</t>
+          <t>英雄之礼</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>获得五星圣遗物。</t>
+          <t>获得四星圣遗物。</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>祝圣篇章</t>
+          <t>长歌回响</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>将一个五星圣遗物强化至最高等级，</t>
+          <t>将一个四星圣遗物强化至最高等级</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7345,20 +7345,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>大地勘探·蒙德</t>
+          <t>神话秘藏</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>点亮整个蒙德地图（龙脊雪山地区除外）。</t>
+          <t>获得五星圣遗物。</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7370,20 +7370,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>千风拂去</t>
+          <t>祝圣篇章</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>解锁蒙德的所有传送锚点（龙脊雪山地区除外）。</t>
+          <t>将一个五星圣遗物强化至最高等级</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -7399,16 +7399,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>且听风吟</t>
+          <t>大地勘探·蒙德</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>将蒙德的七天神像供奉至满级。</t>
+          <t>点亮整个蒙德地图（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7424,16 +7424,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>圣巡礼·蒙德</t>
+          <t>千风拂去</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>解除蒙德所有地灵的封印。</t>
+          <t>解锁蒙德的所有传送锚点（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7449,16 +7449,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>风中引路人</t>
+          <t>且听风吟</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>在蒙德追随40个仙灵，并点亮仙灵之庭（龙脊雪山地区除外）</t>
+          <t>将蒙德的七天神像供奉至满级</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7474,16 +7474,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>逐风的寻宝者</t>
+          <t>圣巡礼·蒙德</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>在蒙德开启400个宝箱（龙脊雪山地区除外）。</t>
+          <t>解除蒙德所有地灵的封印。</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7499,16 +7499,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>逐风的冒险家</t>
+          <t>风中引路人</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>在蒙德，完成15个大世界机关限时挑战（龙脊雪山地区除外）。</t>
+          <t>在蒙德追随40个仙灵，并点亮仙灵之庭（龙脊雪山地区除外）</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -7520,20 +7520,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>大地勘探·璃月</t>
+          <t>逐风的寻宝者</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>点亮整个璃月地图。</t>
+          <t>在蒙德开启400个宝箱（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -7545,20 +7545,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>尽览群岩</t>
+          <t>逐风的冒险家</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>解锁璃月的所有传送锚点。</t>
+          <t>在蒙德，完成15个大世界机关限时挑战（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7574,16 +7574,16 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>重峰不移</t>
+          <t>大地勘探·璃月</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>将璃月的七天神像供奉至满级</t>
+          <t>点亮整个璃月地图。</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7599,16 +7599,16 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>圣巡礼·璃月</t>
+          <t>尽览群岩</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>解除璃月所有地灵的封印。</t>
+          <t>解锁璃月的所有传送锚点。</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>岩间引路人</t>
+          <t>重峰不移</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>在璃月追随60个仙灵，并点亮仙灵之庭，</t>
+          <t>将璃月的七天神像供奉至满级</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -7649,16 +7649,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>磐岩的寻宝者</t>
+          <t>圣巡礼·璃月</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>在璃月开启800个宝箱。</t>
+          <t>解除璃月所有地灵的封印。</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7674,16 +7674,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>磐岩的冒险家</t>
+          <t>岩间引路人</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>在璃月，完成40个大世界机关限时挑战</t>
+          <t>在璃月追随60个仙灵，并点亮仙灵之庭，</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -7695,20 +7695,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>「无他，惟手熟尔」</t>
+          <t>磐岩的寻宝者</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>用弓箭射中在空中飞行的鹰。</t>
+          <t>在璃月开启800个宝箱。</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -7720,20 +7720,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>百步穿杨</t>
+          <t>磐岩的冒险家</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>在远距离，通过瞄准射击击中敌人要害</t>
+          <t>在璃月，完成40个大世界机关限时挑战</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -7745,20 +7745,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>魔弹射手</t>
+          <t>「老实点！」</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>在超远距离，通过瞄准射击击中敌人要害。</t>
+          <t>达成10次：持续冻结一名敌人超过10秒</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -7770,20 +7770,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>全什么外壳来着？</t>
+          <t>「随风而去吧！J</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>粉碎一个大型岩史莱姆的岩晶护罩。</t>
+          <t>达成10次：2秒内。触发冰、水、火、雷元素四种扩散反应</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -7795,20 +7795,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>特斯拉球还流行吗？</t>
+          <t>白色的季节</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>粉碎一个雷萤术士的护罩。</t>
+          <t>达成10次：2秒内，冻结4名敌人</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -7820,20 +7820,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>谁的节奏天国？</t>
+          <t>低温环境导致可用电量下降</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>阻止深渊法师恢复护罩。</t>
+          <t>达成10次：2秒内，通过超导反应打败4名敌人</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -7845,20 +7845,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>赫炎的达达乌帕</t>
+          <t>「艺术就是……」</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>点燃一扇木盾丘丘暴徒的木盾。</t>
+          <t>达成10次：2秒内，通过超载反应打败4名敌人</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -7870,20 +7870,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>清泉的猎人</t>
+          <t>…必须毁灭两次</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>击败过纯水精灵召唤的每一种幻形生物</t>
+          <t>达成10次：2秒内，通过融化反应打败4名敌人，</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -7895,20 +7895,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>水刑物语</t>
+          <t>『略大于突如其来的爱情。」</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>在未被部分幻形生物消散时留下的水弹命中的情况下，击败纯水精灵</t>
+          <t>达成10次：2秒内，通过感电反应打败4名敌人</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -7920,20 +7920,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>…出奇迹？</t>
+          <t>「无他，惟手熟尔」</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>击败「奇怪的丘丘人150次。</t>
+          <t>用弓箭射中在空中飞行的鹰。</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -7945,20 +7945,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>提瓦特的园子，不畏严寒</t>
+          <t>百步穿杨</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>通过攻击急冻树的花冠，使其瘫痪</t>
+          <t>在远距离，通过瞄准射击击中敌人要害</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -7970,20 +7970,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>提瓦特的园丁。不畏酷热</t>
+          <t>魔弹射手</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>通过攻击爆炎树的花冠，使其瘫痪</t>
+          <t>在超远距离，通过瞄准射击击中敌人要害。</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -7995,20 +7995,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>天降正义！</t>
+          <t>全什么外壳来着？</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>维持下落攻击状态超过5秒后，命中敌人。</t>
+          <t>粉碎一个大型岩史莱姆的岩晶护罩。</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8020,20 +8020,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>第三类永动机</t>
+          <t>特斯拉球还流行吗？</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>在15秒内，施放5次元素爆发。</t>
+          <t>粉碎一个雷萤术士的护罩，</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8045,20 +8045,20 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>约等于天下无敌</t>
+          <t>谁的节奏天国？</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>使一名角色同时处于三种或更多不同的护盾屁护下。</t>
+          <t>阻止深渊法师恢复护罩。</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8070,20 +8070,20 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>抢断</t>
+          <t>赫炎的达达乌帕</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>打落冰弹丘丘人手中的冰史莱姆，</t>
+          <t>点燃一扇木盾丘丘暴徒的木盾。</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -8095,20 +8095,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>推倒这面墙！</t>
+          <t>清泉的猎人</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>摧毁一扇冰盾丘丘暴徒的盾牌，</t>
+          <t>击败过纯水精灵召唤的每一种幻形生物</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8120,20 +8120,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>少冰无糖</t>
+          <t>水刑物语</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>在冰丘丘萨满没能创造冰柱的情况下，击败冰丘丘萨满。</t>
+          <t>在未被部分幻形生物消散时留下的水弹命中的情况下，击败纯水精灵</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -8145,20 +8145,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>…摔得越重</t>
+          <t>…出奇迹？</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>摧毁冰丘丘萨满的冰柱。</t>
+          <t>击败「奇怪的丘丘人150次。</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8170,20 +8170,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>这个丘丘不太冷</t>
+          <t>提瓦特的园子，不畏严寒</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>在魔化状态结束前，击败丘丘霜铠王。</t>
+          <t>通过攻击急冻树的花冠，使其瘫痪</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8195,20 +8195,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>玫瑰花蕾·…·</t>
+          <t>提瓦特的园丁。不畏酷热</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>粉碎一个冰萤术士的护罩</t>
+          <t>通过攻击爆炎树的花冠，使其瘫痪</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8220,20 +8220,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>国王刺客</t>
+          <t>天降正义！</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>击败龙脊雪山的真正王者··“</t>
+          <t>维持下落攻击状态超过5秒后，命中敌人。</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8245,20 +8245,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>歌利亚</t>
+          <t>第三类永动机</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>通过攻击要害，瘫痪遗迹重机。</t>
+          <t>在15秒内，施放5次元素爆发</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8270,20 +8270,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>·太阳岩龙蜥、月亮岩龙蜥</t>
+          <t>约等于天下无敌</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>击败过岩龙蜥的所有元素形态</t>
+          <t>使一名角色同时处于三种或更多不同的护盾护下。</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8295,20 +8295,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>岩元素反应？</t>
+          <t>抢断</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>击败过古岩龙蜥所有元素形态</t>
+          <t>打落冰弹丘丘人手中的冰史莱姆，</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8320,20 +8320,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>谣</t>
+          <t>推倒这面墙！</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>在魔偶剑鬼挑鲜时击败魔偶剑鬼</t>
+          <t>摧毁一扇冰盾丘丘暴徒的盾牌，</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8345,20 +8345,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>废图毁腾</t>
+          <t>少冰无糖</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>在场上没有丘丘雷图腾的情况下，击败雷丘丘萨满</t>
+          <t>在冰丘丘萨满没能创造冰柱的情况下，击败冰丘丘萨满。</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8370,20 +8370,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>被命运诅咒的王</t>
+          <t>…摔得越重</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>击败强化状态下的丘丘雷兜王。</t>
+          <t>摧毁冰丘丘萨满的冰柱。</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -8395,20 +8395,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>飞越水疗馆</t>
+          <t>这个丘丘不太冷</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>不被T水牢】攻击命中的情况下，击败藏镜任女。</t>
+          <t>在魔化状态结束前，击败丘丘霜铠王。</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -8420,20 +8420,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>完全静默</t>
+          <t>玫瑰花蕾·…·</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>在无相之火只进入一次熄灭状态的情况下，击败无相之火！</t>
+          <t>粉碎一个冰萤术士的护罩。</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -8445,20 +8445,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>鸣神岛作战</t>
+          <t>国王刺客</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>击败处于虚弱状态下的恒常机关阵列</t>
+          <t>击败龙脊雪山的真正王者?··“</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -8470,20 +8470,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>画龙点睛</t>
+          <t>歌利亚</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>在战斗中不曾获取过护盾的情况下，击败若陀龙王。</t>
+          <t>通过攻击要害，瘫痪迹重机</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -8495,7 +8495,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -8503,12 +8503,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>深邃的探究者</t>
+          <t>·太阳岩龙蜥、月亮岩龙蜥</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>深境螺旋：通过12层</t>
+          <t>击败过岩龙蜥的所有元素形态</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -8520,7 +8520,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>来自深境</t>
+          <t>岩元素反应？</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>深境螺旋：在没有受到伤害的情况下完成第8层第3间。</t>
+          <t>击败过古岩龙蜥所有元素形态</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -8545,7 +8545,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -8553,12 +8553,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>My Precious</t>
+          <t>谣</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>深境螺旋：在地脉镇石完好的情况下完成第2层第2间</t>
+          <t>在魔偶剑鬼挑鲜时击败魔偶剑鬼</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -8570,7 +8570,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>渊星斗士</t>
+          <t>废图毁腾</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>深境螺旋：取得「深境回廊]的所有渊星</t>
+          <t>在场上没有丘丘雷图腾的情况下，击败雷丘丘萨满</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -8595,20 +8595,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Olah!·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>.Odomu?</t>
+          <t>被命运诅咒的王</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>在语言交流』中与丘丘人交流成功。</t>
+          <t>击败强化状态下的丘丘雷兜王。</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -8620,20 +8620,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Olah!·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Yo dala?</t>
+          <t>飞越水疗馆</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>在诗歌交流』中与丘丘人交流成功。</t>
+          <t>不被「水牢』攻击命中的情况下，击败藏镜仕女。</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -8645,45 +8645,45 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>至东国不相信眼泪·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>追求极致</t>
+          <t>完全静默</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>在「说到做到：J中完美完成查耶维奇的所有委托。</t>
+          <t>在无相之火只进入一次熄灭状态的情况下，击败无相之火。</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>至东国不相信眼泪·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>有一说一</t>
+          <t>鸣神岛作战</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>在「来自冬天的故事』中探听到所有关于至冬国的情报。</t>
+          <t>击败处于虚弱状态下的恒常机关阵列。</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -8695,20 +8695,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>帝君故事</t>
+          <t>画龙点睛</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>搜集到「岩游记』中所有有关岩王帝君的故事。</t>
+          <t>在战斗中不曾获取过护盾的情况下，击败若陀龙王。</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -8720,20 +8720,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>旅者且留步…·</t>
+          <t>深邃的探究者</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>在「且听下回分解】中听完《裁雨声》》。</t>
+          <t>深境螺旋：通过12层</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -8745,20 +8745,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>且听我一言。</t>
+          <t>来自深境</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>在「且听下回分解」中听完《海山履云记》。</t>
+          <t>深境螺旋：在没有受到伤害的情况下完成第8层第3间。</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -8770,20 +8770,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>[来坦。来补。来输出</t>
+          <t>My Precious</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>与其他玩家一同完成100次秘境挑战。</t>
+          <t>深境螺旋：在地脉镇石完好的情况下完成第2层第2间</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -8795,20 +8795,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>「我来，我见，我征服」</t>
+          <t>渊星斗士</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>在其他玩家的世界中，采集50个地区特产。</t>
+          <t>深境螺旋：取得「深境回廊]的所有渊星</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -8820,20 +8820,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>Olah!·第一辑</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>「你家风晶蝶还蛮大的」</t>
+          <t>.Odomu?</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之风</t>
+          <t>在语言交流』中与丘丘人交流成功。</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -8845,20 +8845,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>Olah!·第一辑</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>「.…微笑就可以了。</t>
+          <t>Yo dala?</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之雷。</t>
+          <t>在诗歌交流』中与丘丘人交流成功。</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -8870,45 +8870,45 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>至东国不相信眼泪·第一辑</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>[原来那个柱子能打啊】</t>
+          <t>追求极致</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之岩</t>
+          <t>在「说到做到：J中完美完成查耶维奇的所有委托。</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>0/1</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>至东国不相信眼泪·第一辑</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>「急冻树、青空、南风</t>
+          <t>有一说一</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜急冻树</t>
+          <t>在「来自冬天的故事』中探听到所有关于至冬国的情报。</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -8920,20 +8920,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>TThis is finel</t>
+          <t>帝君故事</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜爆炎树</t>
+          <t>搜集到「岩游记』中所有有关岩王帝君的故事。</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -8945,20 +8945,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>一条名叫洛蒂娅的鱼</t>
+          <t>旅者且留步…·</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜纯水精灵。</t>
+          <t>在「且听下回分解】中听完《裁雨声》》。</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -8970,20 +8970,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>狼族盟约</t>
+          <t>且听我一言。</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜奔狼领的主者。</t>
+          <t>在「且听下回分解」中听完《海山履云记》。</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -9003,12 +9003,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>邪眼的性能不是战力差距的决定因素</t>
+          <t>[来坦，来补。来输出</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜「公子】。</t>
+          <t>与其他玩家一同完成100次秘境挑战。</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -9020,7 +9020,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>「山动了」</t>
+          <t>「我来，我见，我征服」</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜古岩龙蜥。</t>
+          <t>在其他玩家的世界中，采集50个地区特产。</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -9045,7 +9045,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>往日重现</t>
+          <t>「你家风晶蝶还蛮大的」</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜若陀龙王！</t>
+          <t>与其他玩家一同战胜无相之风</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -9070,7 +9070,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -9078,12 +9078,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>未来解冻计划</t>
+          <t>「.…微笑就可以了。</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之冰，</t>
+          <t>与其他玩家一同战胜无相之雷。</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -9095,7 +9095,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -9103,12 +9103,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>一线断时……·</t>
+          <t>[原来那个柱子能打啊】</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜魔偶剑鬼</t>
+          <t>与其他玩家一同战胜无相之岩</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -9120,7 +9120,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>篝火大作战</t>
+          <t>「急冻树、青空、南风</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之火！</t>
+          <t>与其他玩家一同战胜急冻树</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -9145,7 +9145,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -9153,12 +9153,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>「机关阵列没有永恒」</t>
+          <t>[Thisis fineJ</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜恒常机关阵列。</t>
+          <t>与其他玩家一同战胜爆炎树</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -9170,20 +9170,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>大地勘探·龙脊雪山</t>
+          <t>一条名叫洛蒂娅的鱼</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>点亮龙脊雪山的地图。</t>
+          <t>与其他玩家一同战胜纯水精灵。</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -9195,20 +9195,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>冰峰踏破</t>
+          <t>狼族盟约</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>解锁龙脊雪山的所有传送锚点</t>
+          <t>与其他玩家一同战胜奔狼领的王者。</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -9220,20 +9220,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>踏雪引路人</t>
+          <t>邪眼的性能不是战力差距的决定因素</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>在龙脊雪山追随20个温暖仙灵，并点亮仙灵之庭</t>
+          <t>与其他玩家一同战胜「公子」。</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -9245,20 +9245,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>雪山的寻宝者</t>
+          <t>「山动了」</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>在龙脊雪山开启160个宝箱，</t>
+          <t>与其他玩家一同战胜古岩龙蜥。</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -9270,20 +9270,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>赤红的新芽</t>
+          <t>往日重现</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>将忍冬之树供奉至12级。</t>
+          <t>与其他玩家一同战胜若陀龙王！</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -9295,20 +9295,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>寒天之钉</t>
+          <t>未来解冻计划</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>将奇怪的大柱子』升起。</t>
+          <t>与其他玩家一同战胜无相之冰，</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -9320,20 +9320,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>龙与枪</t>
+          <t>一线断时……·</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>利用「龙]的遗，制造武器。</t>
+          <t>与其他玩家一同战胜魔偶剑鬼，</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -9345,20 +9345,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>洞天无别景?·</t>
+          <t>篝火大作战</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>使用「尘歌壶』进入「洞天』。</t>
+          <t>与其他玩家一同战胜无相之火</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -9370,20 +9370,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>前方高仙力反应</t>
+          <t>了机关阵列没有永恒]</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>3个洞天形态的洞天仙力达到20000。</t>
+          <t>与其他玩家一同战胜恒常机关阵列</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -9395,20 +9395,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>壶中密友</t>
+          <t>大地勘探·龙脊雪山</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>与壶灵的信任等阶达到10级</t>
+          <t>点亮龙脊雪山的地图。</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -9420,20 +9420,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工</t>
+          <t>冰峰踏破</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>获得2000份木材。</t>
+          <t>解锁龙脊雪山的所有传送锚点</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -9445,20 +9445,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>宝钱大亨</t>
+          <t>踏雪引路人</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>获得50000份洞天宝钱。</t>
+          <t>在龙脊雪山追随20个温暖仙灵，并点亮仙灵之庭</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -9470,20 +9470,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>不止是个小板凳</t>
+          <t>雪山的寻宝者</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>制作600个摆设。</t>
+          <t>在龙脊雪山开启160个宝箱，</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -9495,20 +9495,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>来点颜色？</t>
+          <t>赤红的新芽</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>制作600份染料。</t>
+          <t>将忍冬之树供奉至12级。</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -9520,20 +9520,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>标准图样</t>
+          <t>寒天之钉</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>习得180份摆设图纸</t>
+          <t>将奇怪的大柱子1升起。</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -9545,20 +9545,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>我的··地盘</t>
+          <t>龙与枪</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>在一个洞天形态中，同时放置300个摆设</t>
+          <t>利用「龙]的遗，制造武器。</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -9570,7 +9570,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -9578,24 +9578,24 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>我们需要更多作物！</t>
+          <t>洞天无别景?·</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>在r贵本之道-『玄此玉田中收获800个采集物</t>
+          <t>使用「尘歌壶』进入「洞天』。</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>338/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -9603,24 +9603,24 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>花开之洞天</t>
+          <t>前方高仙力反应</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>在T贵本之道-『此芝田』中收获800个采集物。</t>
+          <t>3个洞天形态的洞天仙力达到20000。</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>252/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -9628,24 +9628,24 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>采集时间到！</t>
+          <t>壶中密友</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>在T贵本之道-『楚此田』中收获800个采集物。</t>
+          <t>与壶灵的信任等阶达到10级</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>201/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -9653,12 +9653,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>传送空间棋盘</t>
+          <t>伐伐伐伐木工</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>在「尘歌壶』内首次设置「洞天锚点」。</t>
+          <t>获得2000份木材。</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -9670,20 +9670,20 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>大地勘探·雷光所照之王·其一</t>
+          <t>宝钱大亨</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>点亮稻妻区域中，鸣神岛、神无家与八酝岛的地图，</t>
+          <t>获得50000份洞天宝钱。</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -9695,20 +9695,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>跨越雷鸣的大地·其一</t>
+          <t>不止是个小板凳</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，鸣神岛、神无家与八岛所有传送锚点。</t>
+          <t>制作600个摆设。</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -9720,20 +9720,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>圣巡礼·稻妻天领·其一</t>
+          <t>来点颜色？</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>解除稻妻区域中，鸣神岛、神无家与八岛所有地灵的封印</t>
+          <t>制作600份染料。</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -9745,20 +9745,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>隽永如电</t>
+          <t>标准图样</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>将稻妻的七天神像供奉至满级</t>
+          <t>习得180份摆设图纸。</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -9770,20 +9770,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>神篱凭代</t>
+          <t>我的…地盘</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>将T神樱着顾J等级提升至满级</t>
+          <t>在一个洞天形态中，同时放置300个摆设</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -9795,20 +9795,20 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>鸣草丛中的捕手·其一</t>
+          <t>壶中贵客</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>在稻妻的鸣神岛、神无家与八岛，追上40个雷灵。</t>
+          <t>邀请同伴入驻「尘歌壶」。</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -9820,20 +9820,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>烁光引路人·其一</t>
+          <t>围炉夜谈</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八酝岛追随16个仙灵，并点亮仙灵之</t>
+          <t>解锁30段同伴互动对话。</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -9845,20 +9845,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>循雷的寻宝者·其一</t>
+          <t>决胜的礼物！</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八岛开启300个宝箱，</t>
+          <t>获得20份同伴赠礼</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -9870,95 +9870,95 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>异人被行芝居</t>
+          <t>我们需要更多作物！</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>完成「神樱大」。</t>
+          <t>在r贵本之道-『玄此玉田中收获800个采集物</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>338/800</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>踏鞘物语</t>
+          <t>花开之洞天</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>解除「御影炉心』的危机。</t>
+          <t>在T贵本之道-『此芝田』中收获800个采集物。</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>252/800</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>遗怨的回音</t>
+          <t>采集时间到！</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>完成了「远吕羽氏遗事』系列任务</t>
+          <t>在T贵本之道-『楚此田』中收获800个采集物。</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>201/800</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>循雷的冒险家·其一</t>
+          <t>传送空间棋盘</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八岛，完成24个大世界机关限时</t>
+          <t>在「尘歌壶』内首次设置「洞天锚点」。</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -9970,7 +9970,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -9978,12 +9978,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>大地勘探·雷光所照之土·其二</t>
+          <t>大地勘探·雷光所照之王·其一</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>点亮稻妻区域中，海岛与清籁岛的地图</t>
+          <t>点亮稻妻区域中，鸣神岛、神无家与八酝岛的地图，</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -9995,7 +9995,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -10003,12 +10003,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>跨越雷鸣的大地·其二</t>
+          <t>跨越雷鸣的大地·其一</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，海岛与清赖岛所有的传送锚点。</t>
+          <t>解锁稻妻区域中，鸣神岛、神无家与八岛所有传送锚点。</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -10020,7 +10020,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -10028,12 +10028,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>圣巡礼·稻妻天领·其二</t>
+          <t>圣巡礼·稻妻天领·其一</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，海岛与清岛所有地灵的封印</t>
+          <t>解除稻妻区域中，鸣神岛、神无家与八岛所有地灵的封印</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -10045,7 +10045,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -10053,12 +10053,12 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>鸣草丛中的捕手·其二</t>
+          <t>隽永如电</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清岛追上16个雷灵！</t>
+          <t>将稻妻的七天神像供奉至满级</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -10070,7 +10070,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -10078,12 +10078,12 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>烁光引路人·其二</t>
+          <t>神篱凭代</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清籁岛追随6个仙灵，并点亮仙灵之庭</t>
+          <t>将T神樱着顾J等级提升至满级</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -10095,7 +10095,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -10103,12 +10103,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>循雷的寻宝者·其二</t>
+          <t>鸣草丛中的捕手·其一</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清赖岛开启160个宝箱。</t>
+          <t>在稻妻的鸣神岛、神无家与八岛，追上40个雷灵。</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -10120,7 +10120,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -10128,12 +10128,12 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>循雷的冒险家·其二</t>
+          <t>烁光引路人·其一</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>在海岛与清岛完成24个大世界机关限时挑战。</t>
+          <t>在稻妻区域的鸣神岛、神无家与八岛追随16个仙灵，并点亮仙灵之</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -10145,7 +10145,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -10153,12 +10153,12 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>清籁逐雷记</t>
+          <t>循雷的寻宝者·其一</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>完成「清逐雷记】</t>
+          <t>在稻妻区域的鸣神岛、神无家与八岛开启300个宝箱，</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -10170,7 +10170,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -10178,12 +10178,12 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>一样的月光</t>
+          <t>异人行芝居</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>完成「月浴之渊」。</t>
+          <t>完成「神樱大」。</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -10195,20 +10195,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>大地勘探·鹤观</t>
+          <t>踏鞘物语</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>点亮鹤观的地图。</t>
+          <t>解除「御影炉心』的危机。</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -10220,20 +10220,20 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>雾海尽头</t>
+          <t>遗怨的回音</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>解锁鹤观所有的传送锚点。</t>
+          <t>完成了「远吕羽氏遗事】系列任务</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -10245,20 +10245,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>圣巡礼·鹤观</t>
+          <t>循雷的冒险家·其一</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>解锁鹤观所有地灵的封印。</t>
+          <t>在稻妻区域的鸣神岛、神无家与八岛，完成24个大世界机关限时</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -10270,20 +10270,20 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>雾夜的灼灼电影</t>
+          <t>大地勘探·雷光所照之土·其二</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>在鹤观追上6个雷灵，</t>
+          <t>点亮稻妻区域中，海岛与清籁岛的地图</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -10295,20 +10295,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>深雾引路人</t>
+          <t>跨越雷鸣的大地·其二</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>在鹤观追随6个仙灵，并点亮仙灵之庭。</t>
+          <t>解锁稻妻区域中，海岛与清赖岛所有的传送锚点。</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -10320,20 +10320,20 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>迷失的寻宝者</t>
+          <t>圣巡礼·稻妻天领·其二</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>在鹤观开启120个宝箱。</t>
+          <t>解锁稻妻区域中，海岛与清岛所有地灵的封印</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -10345,20 +10345,20 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>迷失的冒险家</t>
+          <t>鸣草丛中的捕手·其二</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>在鹤观完成12个大世界机关限时挑战</t>
+          <t>在稻妻的海岛与清岛追上16个雷灵！</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -10370,20 +10370,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>雷与永远</t>
+          <t>烁光引路人·其二</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>完成某位作家的取材委托</t>
+          <t>在稻妻的海岛与清籁岛追随6个仙灵，并点亮仙灵之庭</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -10395,45 +10395,45 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>通通400铃</t>
+          <t>循雷的寻宝者·其二</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>成功钓鱼2000次。</t>
+          <t>在稻妻的海岛与清籁岛开启160个宝箱</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>921/2000</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>稚子敲针作钓钩</t>
+          <t>循雷的冒险家·其二</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>首次成功钓鱼。</t>
+          <t>在海岛与清赖岛完成24个大世界机关限时挑战</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -10445,20 +10445,20 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>[恭喜这位，喜提鱼缸」</t>
+          <t>清籁逐雷记</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>首次钓获观赏鱼。</t>
+          <t>完成「清逐雷记】</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -10470,20 +10470,20 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>被打碎的水中月亮</t>
+          <t>一样的月光</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>首次钓获只在夜间出没的鱼儿</t>
+          <t>完成「月浴之渊」。</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -10495,20 +10495,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>「叫我以实玛利。」</t>
+          <t>大地勘探·鹤观</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>在其他玩家的世界中完成一次钓鱼。</t>
+          <t>点亮鹤观的地图。</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -10520,20 +10520,20 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>渔民杀机</t>
+          <t>雾海尽头</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>从钓鱼协会处购买一根鱼竿。</t>
+          <t>解锁鹤观所有的传送锚点。</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -10545,20 +10545,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>尽倾江海里</t>
+          <t>圣巡礼·鹤观</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>成功制作20次鱼饵。</t>
+          <t>解锁鹤观所有地灵的封印。</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -10570,20 +10570,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>正经的钓鱼学位</t>
+          <t>雾夜的灼灼电影</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>解锁20个鱼类图鉴。</t>
+          <t>在鹤观追上6个雷灵，</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -10595,20 +10595,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>中场</t>
+          <t>深雾引路人</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>在稻妻，通过钓鱼钓到散落的书页。</t>
+          <t>在鹤观追随6个仙灵，并点亮仙灵之庭。</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -10620,20 +10620,20 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>张力稳定锚</t>
+          <t>迷失的寻宝者</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>鱼竿始终保持在最佳张力区的情况下成功钓鱼10次。</t>
+          <t>在鹤观开启120个宝箱。</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -10645,20 +10645,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>壶中贵客</t>
+          <t>迷失的冒险家</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>邀请同伴入驻「尘歌壶」。</t>
+          <t>在鹤观完成12个大世界机关限时挑战。</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -10670,20 +10670,20 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>围炉夜谈</t>
+          <t>雷与永远</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>解锁30段同伴互动对话。</t>
+          <t>完成某位作家的取材委托。</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -10695,45 +10695,45 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>决胜的礼物！</t>
+          <t>通通400铃</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>获得20份同伴赠礼</t>
+          <t>成功钓鱼2000次。</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>921/2000</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>「……岂知夜色……』</t>
+          <t>稚子敲针作钓钩</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>点亮渊下宫的地图。</t>
+          <t>首次成功钓鱼。</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -10745,20 +10745,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>常世之大权</t>
+          <t>[恭喜这位，喜提鱼缸」</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>解锁渊下宫所有的传送锚点。</t>
+          <t>首次钓获观赏鱼。</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -10770,20 +10770,20 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>福斯福洛斯的指引</t>
+          <t>被打碎的水中月亮</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>在渊下宫追随30个仙灵，并点亮仙灵之庭</t>
+          <t>首次钓获只在夜间出没的鱼儿</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -10795,20 +10795,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>赫斯珀洛斯的好东西</t>
+          <t>「叫我以实玛利。」</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>在渊下宫开启160个宝箱</t>
+          <t>在其他玩家的世界中完成一次钓鱼。</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -10820,20 +10820,20 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>卡伊洛斯的时时刻刻</t>
+          <t>渔民杀机</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>在渊下宫完成12个大世界机关限时挑战</t>
+          <t>从钓鱼协会处购买一根鱼竿。</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -10845,23 +10845,248 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>7</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>尽倾江海里</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>成功制作20次鱼饵。</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>8</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>正经的钓鱼学位</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>解锁20个鱼类图鉴</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>9</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>中场</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>在稻妻，通过钓鱼钓到散落的书页，</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>10</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>张力稳定锚</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>鱼竿始终保持在最佳张力区的情况下成功钓鱼10次</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
           <t>白昼之光</t>
         </is>
       </c>
-      <c r="B417" t="n">
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>「……岂知夜色……』</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>点亮渊下宫的地图。</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>2</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>常世之大权</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>解锁渊下宫所有的传送锚点。</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>3</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>福斯福洛斯的指引</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>在渊下宫追随30个仙灵，并点亮仙灵之庭</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>4</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>赫斯珀洛斯的好东西</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>在渊下宫开启160个宝箱</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>5</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>卡伊洛斯的时时刻刻</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>在渊下宫完成12个大世界机关限时挑战</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
         <v>6</v>
       </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>火鼠裘、龙首珠、佛前钵和?··</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>取得露子委托的珊瑚枝条</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr">
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>火鼠裘、龙首珠、佛前钵和···</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>取得露子委托的珊瑚枝条。</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
         <is>
           <t>达成</t>
         </is>

--- a/test.xlsx
+++ b/test.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E426"/>
+  <dimension ref="A1:E436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>使用道具「四方八方之网]捕获30只野外生物。</t>
+          <t>使用道具1四方八方之网】捕获30只野外生物。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>完成五次T愿风带走思念」。</t>
+          <t>完成五次T愿风带走思念！。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[风带来了故事的种子···」</t>
+          <t>[风带来了故事的种子···</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>穿越誓言邮上空的时空隧道。</t>
+          <t>穿越誓言邮上空的时空隧道</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>循着长存者之迹，开了秘境之门。</t>
+          <t>循着长存者之迹，卯开了秘境之门。</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>帮助仙灵归位，解锁奔狼领内的秘境入口。</t>
+          <t>帮助仙灵归位，解锁奔狼领内的秘境入口</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>「只要用心……』</t>
+          <t>[只要用心……』</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>烹饪1道口味奇怪的料理</t>
+          <t>烹饪1道口味奇怪的料理。</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>『.人人都是食神。」</t>
+          <t>「…人人都是食神。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>一次滑翔很远、很远的距离，</t>
+          <t>一次滑翔很远、很远的距离。</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>「在空中飞行程度的能力」</t>
+          <t>［在空中飞行程度的能力】</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>持续冲刺或使用替代冲刺的能力，移动15秒</t>
+          <t>持续冲刺或使用代冲刺的能力，移动15秒。</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>在冒险中，与各种各样的人相识。</t>
+          <t>在险中，与各种各样的人相识</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>威遍风土</t>
+          <t>威遍风士</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>蒙德的声望等级达到8级，</t>
+          <t>蒙德的声望等级达到8级</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>稻妻的声望等级达到10级。</t>
+          <t>稻妻的声望等级达到10级</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>完成30次「讨伐悬赏】。</t>
+          <t>完成30次「讨伐悬赏！。</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>因为严寒而倒下··</t>
+          <t>因为严寒而倒下.··</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>获得雪葬之都的宝物。</t>
+          <t>获得雪葬之都的宝物</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>循着过去的考察队中某人的路径，抵达他启程返乡的地方。</t>
+          <t>循看过去的考察队中某人的路径，抵达他启程返乡的地方。</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>无果的远征</t>
+          <t>冰冷的钢铁</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>发现很多遗迹机器的遗·</t>
+          <t>获得星银铸造的古代武器</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1228,12 +1228,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>没能讲出的故事</t>
+          <t>无果的远征</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>在意想不到之处，结识了意想不到的朋友。</t>
+          <t>发现很多遗迹机器的遗··</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>一览众山小</t>
+          <t>没能讲出的故事</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>抵达龙脊雪山的最高峰。</t>
+          <t>在意想不到之处，结识了意想不到的朋发。</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1278,12 +1278,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>一个冬天的童话</t>
+          <t>一览众山小</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>在雪堆下发现了冰晶蝶。</t>
+          <t>抵达龙香雪山的最高峰。</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>猎人变成了猎物</t>
+          <t>一个冬天的童话</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>被大雪猪王击败。</t>
+          <t>在雪堆下发现了冰晶蝶</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1328,12 +1328,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>冷静点！</t>
+          <t>猎人变成了猎物</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>击败处于狂暴状态下的大雪猪王</t>
+          <t>被大雪猪王击败。</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[一口吃掉了几十万摩拉！」</t>
+          <t>冷静点！</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>掌握「稠汁蔬菜炖肉J的制作方法。</t>
+          <t>击败处于狂暴状态下的大雪猪王！</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>天雷圣裁</t>
+          <t>[一口吃掉了几十万摩拉！1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>被落雷击中。</t>
+          <t>掌握T稠汁蔬菜炖肉]的制作方法</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>接近天空的地方?·</t>
+          <t>天雷圣裁</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>登上复原后的寒天之钉。</t>
+          <t>被落雷击中。</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>嬉变核素</t>
+          <t>接近天空的地方?··</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>利用「参量质变仪」，完成一次物质质变。</t>
+          <t>登上复原后的寒天之钉。</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>·你其实听得见吧？</t>
+          <t>嬉变核素</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>派蒙也会累的。</t>
+          <t>利用T参量质变仪！，完成一次物质质变</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>哟曜曜，再来瓶蒲公英酒</t>
+          <t>?·你其实听得见吧？</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>登上「浪船」。</t>
+          <t>派蒙也会累的。</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1503,12 +1503,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[乘风破浪真君」</t>
+          <t>哟曜曜，再来瓶蒲公英酒</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>持续搭乘「浪船』达到一定时间。</t>
+          <t>登上「浪船」。</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nice boat！</t>
+          <t>［乘风破浪真君」</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>与其他玩家交换「浪船」。</t>
+          <t>持续搭乘T浪船】达到一定时间</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1553,12 +1553,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>·其名为「玛丽·塞勒斯特」</t>
+          <t>Nice boat!</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>『浪船]被破坏了··</t>
+          <t>与其他玩家交换「浪船」。</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Deja Vu!</t>
+          <t>··其名为「玛丽·塞勒斯特】</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>持续高速行驶「浪船】达到一定时间</t>
+          <t>『浪船]被破坏了···</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>山田五的木枪</t>
+          <t>Deja Vu！</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>多次识破妖狸的法术。</t>
+          <t>持续高速行驶「浪船]达到一定时间</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[鲸井御殿流手术J</t>
+          <t>山田五的木</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>陪鲸井小弟玩T手游戏】</t>
+          <t>多次识破妖狸的法术！</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>本朝手鞠戏小传</t>
+          <t>[鲸井御殿流手术」</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>其他玩家参加了你所设置的「手鞠游戏」</t>
+          <t>陪鲸井小弟玩T手游戏！</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>派蒙的幸运日！</t>
+          <t>本朝手翰戏小传</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>在鸣神大社，抽中「大吉』的签文。</t>
+          <t>其他玩家参加了你所设置的「手游戏】。</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1703,12 +1703,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>地宫传奇··才怪！</t>
+          <t>派蒙的幸运日！</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>发掘失落记忆的冒险本身，又何尝不是宝藏呢？</t>
+          <t>在鸣神大社，抽中「大吉」的签文。</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>岩藏武艺帐</t>
+          <t>地宫传奇···才怪！</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>见证岩藏流的末路。</t>
+          <t>发掘失落记忆的冒险本身，又何尝不是宝藏呢</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>开门放狗</t>
+          <t>岩藏武艺帐</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>解放寅太郎。</t>
+          <t>见证岩藏流的末路。</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>情非得已</t>
+          <t>开门放狗</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>打开广海的心结。</t>
+          <t>解放寅太郎。</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>不再变老</t>
+          <t>情非得已</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>向者献上花束。</t>
+          <t>打开广海的心结。</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>为人的条件？</t>
+          <t>不再变老</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>见证武士的宿命。</t>
+          <t>向者献上花束。</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1853,12 +1853,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>无灵魂处的灵魂</t>
+          <t>为人的条件？</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>找到鹫津的遗物。</t>
+          <t>见证武士的宿命。</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>荒岛朝圣指南</t>
+          <t>无灵魂处的灵魂</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>找到八岛所有的神。</t>
+          <t>找到鹫津的遗物。</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>三千里的起点</t>
+          <t>荒岛朝圣指南</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>在踏籍砂和鸣神岛找到长次</t>
+          <t>找到八岛所有的神。</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FKnockKnockJ</t>
+          <t>三千里的起点</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>打开「御影炉心』周围的护罩。</t>
+          <t>在踏藕砂和鸣神岛找到长次</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1953,12 +1953,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>神无家作战计划</t>
+          <t>TKnockKnockJ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>打倒复苏的「无相之雷」。</t>
+          <t>打开「御影炉心周围的护罩。</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>挥刀的理由</t>
+          <t>神无家作战计划</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>让「公义]恢复清醒。</t>
+          <t>打倒复苏的「无相之雷」。</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大业物</t>
+          <t>挥刀的理由</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>挑战并轻松击败「公义】。</t>
+          <t>让「公义J恢复清醒</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>重开之花</t>
+          <t>大业物</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>获得叶名山薰的赠礼。</t>
+          <t>挑战并轻松击败「公义」。</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>承蒙惠顾</t>
+          <t>重开之花</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>获得阿敬的宝箱里的大奖</t>
+          <t>获得叶名山薰的赠礼</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2078,12 +2078,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>雷之祸乱</t>
+          <t>承蒙惠顾</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>因为「雷祸]的伤害而倒下·</t>
+          <t>获得阿敬的宝箱里的大奖</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>框架外收获</t>
+          <t>雷之祸乱</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>用1神居岛崩炮】轰开一处藏宝地</t>
+          <t>因为「雷祸]的伤害而倒下··</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大踏鞘长正</t>
+          <t>框架外收获</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>获得过去某把武器的绘图</t>
+          <t>用T神居岛崩炮】轰开一处藏宝地</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>「…腐肉朽处花争妍。！</t>
+          <t>大踏鞘长正</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>终结十位已武士的怨念。</t>
+          <t>获得过去某把武器的绘图</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2178,12 +2178,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[这就是我的放生路线！1</t>
+          <t>「……腐肉朽处花争妍。1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>鱼儿在挣扎状态中逃脱</t>
+          <t>终结十位已武士的怨念</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2203,12 +2203,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>「切，原来是来钓鱼的··J</t>
+          <t>【这就是我的放生路线！1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>抛竿时吓跑了鱼儿。</t>
+          <t>鱼儿在挣扎状态中逃脱</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>人鱼童话</t>
+          <t>「切。原来是来钓鱼的?··」</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>帮助久美解开心结。</t>
+          <t>抛竿时吓跑了鱼儿。</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>远海牧人的宝藏</t>
+          <t>人鱼童话</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>从酒醉的狂言中，寻到大海贼最宝贵的遗产。</t>
+          <t>帮助久美解开心结。</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2278,12 +2278,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>诚实高个儿西尔弗</t>
+          <t>远海牧人的宝藏</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>找到林藏理藏的所有宝藏</t>
+          <t>从酒醉的狂言中，寻到大海贼最宝贵的遗产。</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>是时候征服海岛了！</t>
+          <t>诚实高个儿西尔弗</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>解除雷神神处的封印。</t>
+          <t>找到林藏理藏的所有宝藏</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>池中宅邸</t>
+          <t>是时候征服海岛了！</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>解锁「池中宅邸」。</t>
+          <t>解除雷神神处的封印。</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>小猎犬号搁浅记</t>
+          <t>池中宅邸</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>跟随无名学者的脚步探索海</t>
+          <t>解锁「池中宅邸】。</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>［奴家是猫。名字叫寝子」</t>
+          <t>小猎犬号搁浅记</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>拜见「浅濑神社代宫司』寝子。</t>
+          <t>跟随无名学者的脚步探索海岛</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>云中的猫</t>
+          <t>「奴家是猫。名字叫寝子」</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>和「浅濑神社代宫司】寝子一起，见证某件迟来的「好事」</t>
+          <t>拜见「浅濑神社代宫司】寝子</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>无可质疑的宝藏</t>
+          <t>云中的猫</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>「都说了只有一幅画啊！』</t>
+          <t>和「浅濑神社代宫司」寝子一起，见证某件迟来的「好事」。</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>乡愁的另一头</t>
+          <t>无可质疑的宝藏</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>为太田太郎在清籁岛上拍摄四张画片！</t>
+          <t>「都说了只有一幅画啊：1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2478,12 +2478,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>它和它·…·</t>
+          <t>乡愁的另一头</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>…连连看？</t>
+          <t>为太田太郎在清籁岛上拍摄四张画片。</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>戴维·琼斯的箱子</t>
+          <t>它和它·…·</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>解开「清籁丸』内的所有机关</t>
+          <t>…连连看？</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大天云屿</t>
+          <t>戴维·琼斯的箱子</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>解开天云屿之底的机关。</t>
+          <t>解开「清丸内的所有机关</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>进入夜雾之门</t>
+          <t>益智海域</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>适应了鹤观的异常天候</t>
+          <t>在清籁岛上解开一系列机关。</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NihitSubCaligineNovum</t>
+          <t>大天云屿</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>似乎又恢复了原状…·</t>
+          <t>解开天云嵯之底的机关</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>白之幻影</t>
+          <t>进入夜雾之门</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>与昔日的幻影相遇。</t>
+          <t>适应了鹤观的异常天候。</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2628,12 +2628,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双城记</t>
+          <t>NihilSubCaligineNovum</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>即使是鹤观，似乎也建立在古老遗迹的残彰上</t>
+          <t>似乎又恢复了原状··</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2653,12 +2653,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>《我作为冒险家的一生》</t>
+          <t>白之幻影</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>协助罗尔德，完成冒险日志。</t>
+          <t>与昔日的幻影相遇。</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2678,12 +2678,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>雾里明灯</t>
+          <t>双城记</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>点亮逢岳之野所有的雷石。</t>
+          <t>即便是鹤观，似乎也建立在古老遗迹的残假上</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>「被、被派蒙吃掉·…·</t>
+          <t>《我作为冒险家的一生》</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>原本拿到的「木簧笛」，却意外消失了。</t>
+          <t>协助罗尔德，完成冒险日志</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>猜想时间</t>
+          <t>雾里明灯</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>从比过去更遥远的过去，来到了今天··</t>
+          <t>点亮逢岳之野所有的雷石。</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>茂知之壳</t>
+          <t>[被、被派蒙吃掉·…·</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>解锁「茂知之壳」。</t>
+          <t>原本拿到的「木簧笛」，却意外消失了。</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>渡过雾的河流</t>
+          <t>猜想时间</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>终于，抵达雾海彼端…·</t>
+          <t>从比过去更遥远的过去，来到了今天?·</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>「让你再飞！」</t>
+          <t>雷鸟的系谱</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>使用道具T四方八方之网】捕获识晶蝶。</t>
+          <t>完成所有「雕像】的挑战</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>面对捕网网眼时的焦虑</t>
+          <t>七个字母</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>使用道具「四方八方之网]捕获1只团雀</t>
+          <t>尝试解读T石根文字】。</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2853,12 +2853,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>海底几万里？</t>
+          <t>茂知之壳</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>进入渊下宫。</t>
+          <t>解锁「茂知之壳」。</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>野马泉，又名摩利支</t>
+          <t>渡过雾的河流</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>解开「阳炎之门』的秘密</t>
+          <t>终于，抵达雾海彼端…·</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2903,12 +2903,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>日月回轮</t>
+          <t>「让你再飞！」</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>转换一次「白夜]与「常夜」。</t>
+          <t>使用道具T四方八方之网】捕获识只晶蝶</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>「智圆行方J小锦旗</t>
+          <t>面对捕网网眼时的焦虑</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>获得地走官的认可。</t>
+          <t>使用道具T四方八方之网】捕获识团雀</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>「明察冬鳗J小锦旗</t>
+          <t>海底几万里？</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>获得地走官的认可。</t>
+          <t>进入渊下宫。</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[常世无双J小锦旗</t>
+          <t>野马泉，又名摩利支</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>获得地走官的认可。</t>
+          <t>解开「阳炎之门』的秘密。</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[下次，试试社会派··」</t>
+          <t>日月回轮</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>完成伊达的迷宫挑战。</t>
+          <t>转换一次「白夜]与「常夜1。</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3028,12 +3028,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[常世大神倘若有知···」</t>
+          <t>丁智圆行方】小锦旗</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>归还所有的图书，并且</t>
+          <t>获得地走官的认可。</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>「真的有区别吗···J</t>
+          <t>『明察冬鳗J小锦旗</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>在所有特别的位置上坐下过。</t>
+          <t>获得地走官的认可。</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>阴阳割昏晓</t>
+          <t>[常世无双1小锦旗</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>前往大日御舆之顶。</t>
+          <t>获得地走官的认可。</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>射程之内好说话</t>
+          <t>[下次，试试社会派·」</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>完成弓术的挑战。</t>
+          <t>完成伊达的迷宫挑战。</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>薄缘的道与光与胤</t>
+          <t>[常世大神倘若有知··</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>归还岩藏宗主的刀。</t>
+          <t>归还所有的图书，并且·</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>一把钥匙开一把锁</t>
+          <t>「真的有区别吗···」</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>找到所有的键纹。</t>
+          <t>在所有特别的位置上坐下过</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3178,12 +3178,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>无坚不摧</t>
+          <t>神的孩子全跳舞</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>在无相之岩复苏前，击碎所有复苏岩柱。</t>
+          <t>和所有的「法厄同】残影对话</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3203,12 +3203,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>棱镜计划</t>
+          <t>阴阳割昏晓</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>在无相之雷复苏前，摧毁所有复苏梭镜</t>
+          <t>前往大日御舆之顶。</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>［这风晶蝶还蛮大的」</t>
+          <t>射程之内好说话</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>在无相之风复苏前，吸收所有风之晶球。</t>
+          <t>完成弓术的挑战。</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3253,12 +3253,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[.…不代表最终品质]</t>
+          <t>薄缘的道与光与胤</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>击败一个进行了四种元素转变的无相之风。</t>
+          <t>归还岩藏宗主的刀。</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>了.··不代表最终品质]</t>
+          <t>一把钥匙开一把锁</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>击败一个进行了四种元素转变的无相之风</t>
+          <t>我到所有的键纹。</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3303,12 +3303,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>…与巨像</t>
+          <t>无坚不摧</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>通过攻击要害，瘫痪遗迹守卫</t>
+          <t>在无相之岩复苏前，击碎所有复苏岩柱。</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>传球</t>
+          <t>棱镜计划</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>打落爆弹丘丘人手中的火史莱姆。</t>
+          <t>在无相之雷复苏前，摧毁所有复苏梭镜</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>「一次…的攻击」</t>
+          <t>了这风晶蝶还蛮大的」</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>通过碎冰伤害，打败一名敌人。</t>
+          <t>在无相之风复苏前，吸收所有风之晶球</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>大黄金丘丘王</t>
+          <t>[.·不代表最终品质]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>在魔化状态结束前，击败丘丘岩盔王。</t>
+          <t>击败一个进行了四种元素转变的无相之风。</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3403,12 +3403,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>向无敌大胃王致敬</t>
+          <t>…与巨像</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>队伍中有四名角色同时处于饱腹状态。</t>
+          <t>通过攻击要害，瘫痪遗迹守卫</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3428,12 +3428,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>摧枯拉朽</t>
+          <t>传球</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>造成超过50000的暴击伤害。</t>
+          <t>打落爆弹丘丘人手中的火史莱姆</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>神奇四·</t>
+          <t>「一次···的攻击」</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>使用四个相同元素属性的角色完成一次秘境挑战</t>
+          <t>通过碎冰伤害，打败一名敌人。</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3478,12 +3478,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>「什么嘛。还不如冰雾花」</t>
+          <t>大黄金丘丘王</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>不击破花冠弱点的情况下，击败急冻树。</t>
+          <t>在魔化状态结束前，击败丘丘岩盔王。</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3503,12 +3503,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[总有比火更灼热的火】</t>
+          <t>向无敌大胃王致敬</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>不击破花冠弱点的情况下，击败爆炎树</t>
+          <t>队伍中有四名角色同时处于饱腹状态。</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>异邦人与异邦人</t>
+          <t>摧枯拉朽</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>队伍中所有角色都不被「公子」标记的后续攻击命中的情况下。击败「公</t>
+          <t>造成超过50000的暴击伤害</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>力场侵蚀</t>
+          <t>神奇四…·</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>粉碎无相之雷的结界。</t>
+          <t>使用四个相同元素属性的角色完成一次秘境挑战</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>?···还有蜥蜴和斯波克】</t>
+          <t>「什么嘛。还不如冰雾花」</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>同一个角色连续被猜拳三连击命中。</t>
+          <t>不击破花冠弱点的情况下，击败急冻树。</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>基础不牢，地动山摇！</t>
+          <t>「总有比火更灼热的火」</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>通过击碎核心停留的玄岩柱，使同一个无相之岩落地三次</t>
+          <t>不击破花冠弱点的情况下，击败爆炎树。</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>基础再牢，也能倒：</t>
+          <t>异邦人与异邦人</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>在不击碎玄岩柱的情况下，使无相之岩进入复苏模式</t>
+          <t>队伍中所有角色都不被「公子]标记的后续攻击命中的情况下，击败「公</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>千风散尽还复来</t>
+          <t>力场侵蚀</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>在一场战斗中，吸收至少10个无相之风创造的元素晶球。</t>
+          <t>粉碎无相之雷的结界。</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>珠心熔毁</t>
+          <t>[··还有蜥蜴和斯波克】</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>摧毁爆炎树创造的炽热之种。</t>
+          <t>同一个角色连续被猜拳三连击命中。</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3703,12 +3703,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[…唯独死亡与债务不可避」</t>
+          <t>基础不牵，地动山摇！</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>击败处于隐蔽状态下的火之债务处理人，</t>
+          <t>通过击碎核心停留的岩柱，使同一个无相之岩落地三次。</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>「孤独地融化…·</t>
+          <t>基础再牢，也能倒：</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>在冰萤术士操控的冰萤全部存在的情况下，击败冰萤术士。</t>
+          <t>在不击碎玄岩柱的情况下，使无相之岩进入复苏模式</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>这也算四风守护？</t>
+          <t>千风散尽还复来</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>触发过风拳先锋军所有元素类型的吸收反击后，击败他。</t>
+          <t>在一场战斗中，吸收至少10个无相之风创造的元素晶球。</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>碰·一·碰</t>
+          <t>珠心熔毁</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>利用护盾反制岩龙蜥的某一式冲撞攻击。</t>
+          <t>催毁爆炎树创造的烘热之种</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3803,12 +3803,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>反弹！</t>
+          <t>[··唯独死亡与债务不可避」</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>利用护盾，反制古岩龙蜥的T原岩喷吐】攻击。</t>
+          <t>击败处于隐蔽状态下的火之债务处理人</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3828,12 +3828,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>悉数奉还！</t>
+          <t>「孤独地融化…·</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>利用同种元素类型或岩元素的护盾，反制古岩龙蜥的「原岩喷吐』攻击，并造成大量你</t>
+          <t>在冰萤术士操控的冰萤全部存在的情况下，击败冰萤术士。</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>我们之中最坚强的灵魂</t>
+          <t>这也算四风守护？</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>击败所有形态的若陀龙王</t>
+          <t>触发过风拳先锋军所有元素类型的吸收反击后，击败他</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>「.…一日之寒」</t>
+          <t>碰·一·碰</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>击败处于虚弱状态的无相之冰</t>
+          <t>利用护盾反制岩龙蜥的某一式冲撞攻击</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -3903,12 +3903,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>「冰冻三尺……』</t>
+          <t>反弹！</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>击败一个复苏了三次的无相之冰</t>
+          <t>利用护，反制古岩龙蜥的！原若喷吐，攻击</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>只要我跑的够快</t>
+          <t>悉数奉还！</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>不被幻影击中的情况下，击败魔偶剑鬼</t>
+          <t>利用同种元素类型或岩元素的护盾，反制古岩龙蜥的「原岩喷吐】攻击，并造成大量你</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>堂堂正正的决斗！</t>
+          <t>我们之中最坚强的灵魂</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>不触发柱死之面]的格挡的情况下，击败魔偶剑鬼。</t>
+          <t>击败所有形态的若陀龙王。</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3978,12 +3978,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>…全靠我们自己</t>
+          <t>「……一日之寒」</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>不触发「原岩喷吐』的反噬的情况下，击败古岩龙蜥。</t>
+          <t>击败处于虚弱状态的无相之冰。</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>把自己烧着了吧？</t>
+          <t>「冰冻三尺……J</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>击败一个复燃过两次的无相之火</t>
+          <t>击败一个复苏了三次的无相之冰</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SmellsLkeAnimalSpirit!</t>
+          <t>只要我跑的够快</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>被无相之火的拟态三连击命中后，击败它。</t>
+          <t>不被幻影击中的情况下，击败魔偶剑鬼。</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>机元突破</t>
+          <t>堂堂正正的决斗！</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>在一场战斗中，使恒常机关阵列的所有四种遗迹机兵均进入瘫痪状态，并击败恒常机</t>
+          <t>不触发「柱死之面]的格挡的情况下，击败魔偶剑鬼。</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4078,12 +4078,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>无关机械请立即离场！</t>
+          <t>?·全靠我们自己</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>不击败任何恒常机关阵列的遗迹机兵的情况下，击败恒常机关阵列。</t>
+          <t>不触发「原岩喷吐』的反噬的情况下，击败古岩龙蜥。</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>遇火斩火</t>
+          <t>把自己烧着了吧？</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>在海乱鬼·炎威的武器附有烈焰的情况下，击败海乱鬼·炎威。</t>
+          <t>击败一个复燃过两次的无相之火！</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4128,12 +4128,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>遇雷切雷</t>
+          <t>SmellsLikeAnimalSpirit！</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>在海乱鬼·雷腾的器附有电流的情况下，击败海乱鬼·雷腾</t>
+          <t>被无相之火的拟态三连击命中后，击败它</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>雷自东来</t>
+          <t>机元突破</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>被雷丘丘暴徒引来的落雷击中..</t>
+          <t>在一场战斗中，使恒常机关阵列的所有四种遗迹机兵均进入瘫痪状态，并击败恒常机</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>AKiuwithoutWater</t>
+          <t>无关机械请立即离场！</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>不击败任何「水滴]的情况下（无相之水恢复时除外），击败无相之水</t>
+          <t>不击败任何恒常机关阵列的遗迹机兵的情况下，击败恒常机关阵列。</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4203,12 +4203,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>海洋生物学者，欧拉！</t>
+          <t>遇火斩火</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>被无相之水幻化的某种生物击中..</t>
+          <t>在海乱鬼·威的武器附有烈焰的情况下，击败海乱鬼·炎威</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>无法传达的恋波</t>
+          <t>遇雷切雷</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>不曾被探针的侦测锁定的情况下，击败雷音权现！</t>
+          <t>在海乱鬼·雷腾的武器附有电流的情况下，击败海乱鬼·雷腾</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>雷音坠落</t>
+          <t>雷自东来</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>击败飞翔的雷音权现。</t>
+          <t>被雷斧丘丘暴徒引来的落雷击中?·.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>红莲冰河与红连魔女</t>
+          <t>AKiulwithoutWater</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>在不破坏任何「炎之心』与「霜之眼]的情况下，击败「女士』。</t>
+          <t>不击败任何「水滴」的情况下（无相之水恢复时除外），击败无相之水</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>漫长旅途的开端</t>
+          <t>海洋生物学者，欧拉！</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>完成蒙德的魔神任务。</t>
+          <t>被无相之水幻化的某种生物击中……</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4328,12 +4328,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>捕风的异乡人</t>
+          <t>无法传达的恋波</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>完成「捕风的异乡人」</t>
+          <t>不曾被探针的侦测锁定的情况下，击败雷音权现</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>为了没有眼泪的明天</t>
+          <t>雷音坠落</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>完成「为了没有眼泪的明天」</t>
+          <t>击败飞翔的雷音权现</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4378,12 +4378,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>巨龙与自由之歌</t>
+          <t>红莲冰河与红连魔女</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>完成『巨龙与自由之歌」。</t>
+          <t>在不破坏任何「炎之心』与「霜之眼]的情况下，击败「女士」</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>听凭风引</t>
+          <t>漫长旅途的开端</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>掌握「风]的元素力。</t>
+          <t>完成蒙德的魔神任务。</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>?还是新的风暴呢？</t>
+          <t>捕风的异乡人</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>驱逐袭击蒙德城的巨龙</t>
+          <t>完成「捕风的异乡人」</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>骑士精神</t>
+          <t>为了没有眼泪的明天</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>成为西风骑士团的荣誉骑士。</t>
+          <t>完成「为了没有眼泪的明天」。</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4478,12 +4478,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>骑士团的诸多麻烦</t>
+          <t>巨龙与自由之歌</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>没能「借』到圣物…·但认识了骑士团的麻烦」。</t>
+          <t>完成「巨龙与自由之歌」。</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>风向是会转变的</t>
+          <t>听凭风引</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>被特瓦林所救。</t>
+          <t>掌握T风]的元素力。</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4528,12 +4528,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>浮世浮生千岩间</t>
+          <t>还是新的风暴呢？</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>完成「浮世浮生千岩间」</t>
+          <t>驱逐袭击蒙德城的巨龙。</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>辞行久远之</t>
+          <t>骑士精神</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>完成「辞行久远之」。</t>
+          <t>成为西风骑士团的荣誉骑士</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>异乡异客</t>
+          <t>骑士团的诸多麻烦</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>在本地人不会去的景点』被外地人搭救。</t>
+          <t>没能「借]到圣物···但认识了「骑士团的麻烦1。</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4603,12 +4603,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>·五丘丘怎么了？</t>
+          <t>风向是会转变的</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>与小昊约定一起玩。</t>
+          <t>被特瓦林所救。</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>春香窑的「副业」</t>
+          <t>浮世浮生千岩间</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>了解T岩王帝君】中意的香膏品类</t>
+          <t>完成「浮世浮生千岩间】。</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>派蒙都进不去吧？</t>
+          <t>辞行久远之</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>将萍姥姥的「壶』打扫干净。</t>
+          <t>完成「辞行久远之」。</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4678,12 +4678,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[勇敢的冒险者啊··」</t>
+          <t>异乡异客</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>不被摩拉束缚手脚，委托他人完成工作。</t>
+          <t>在T本地人不会去的景点】被外地人搭救</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>文物保护</t>
+          <t>·五丘丘怎么了？</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>虽然无缘得见「椰羊」.但修好了古迹。</t>
+          <t>与小莫约定一起玩。</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>漫长的送别</t>
+          <t>春香窑的「副业」</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>筹备好「送仙典仪]所需的道具</t>
+          <t>了解「岩王帝君J中意的香膏品类</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4753,12 +4753,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>史莱姆，糖适量</t>
+          <t>派蒙都进不去吧？</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>精心制作糖霜史莱姆。</t>
+          <t>将萍姥姥的T壶】打扫干净</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>一步登天</t>
+          <t>「勇敢的冒险者啊·…」</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>登上俯瞰璃月港的T空中楼阁】</t>
+          <t>不被摩拉束缚手脚，委托他人完成工作。</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -4803,12 +4803,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>审判之时···还没到</t>
+          <t>文物保护</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>击败「公子」。</t>
+          <t>虽然无缘得见T椰羊]..·但修好了古迹</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>轨道抛掷</t>
+          <t>漫长的送别</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>击退「涡之魔神】。</t>
+          <t>筹备好「送仙典仪1所需的道具</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>终有一别</t>
+          <t>史莱姆，糖适量</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>参与「送仙典仪」。</t>
+          <t>精心制作糖霜史莱姆。</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -4878,12 +4878,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>迫近的客星</t>
+          <t>一步登天</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>完成「迫近的客星】。</t>
+          <t>登上俯瞰璃月港的「空中楼阁」。</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>哎呀！海盗！</t>
+          <t>审判之时···还没到</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>陪璐璐、阿飞与小蒙各玩一次海盗游戏</t>
+          <t>击败『公子」。</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>厨子与渔夫</t>
+          <t>轨道抛</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>完成「独钓江雪]与「勿言勿笑】。</t>
+          <t>击退「漩涡之魔神」。</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>「知天命·…·』</t>
+          <t>终有一别</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>在「好兆头』中，帮助志华找到五个爱情运来临的征兆。</t>
+          <t>参与「送仙典仪】。</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>更上一层楼</t>
+          <t>迫近的客星</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>帮助淮安修复望舒客栈的断桥，</t>
+          <t>完成「迫近的客星]。</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5003,12 +5003,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>时也运也</t>
+          <t>哎呀！海盗！</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>次就选中了最高价值的璞石。</t>
+          <t>陪璐璐、阿飞与小蒙各玩一次海盗游戏</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>凑合··也能用</t>
+          <t>厨子与渔夫</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>只带给赫尔曼木桩的材料。</t>
+          <t>完成T独钓江雪】与T勿言勿笑！。</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5053,12 +5053,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>学者与「学者」</t>
+          <t>「知天命…』</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>完成『『遗落』的文物」与门夺宝』小行动」。</t>
+          <t>在T好兆头1中，帮助志华找到五个爱情运来临的征兆</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5078,12 +5078,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>故人久未归</t>
+          <t>更上一层楼</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>完成T久久望故人】任务。</t>
+          <t>帮助淮安修复望舒客栈的断桥。</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>这本小说真厉害！</t>
+          <t>时也运也</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>偷看常九爷的书稿。</t>
+          <t>一次就选中了最高价值的璞石。</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>喂——有人吗？</t>
+          <t>凑合·也能用</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>在离岛中发现一处秘密通道</t>
+          <t>只带给赫尔曼木桩的材料</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>猜猜我是谁？</t>
+          <t>学者与「学者」</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>获知「枕玉』老师的真实身份。</t>
+          <t>完成遗落]的文物」与[夺宝』小行动」</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5178,12 +5178,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>她和她的猫</t>
+          <t>故人久未归</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>陪寝子前往影向山，寻找「阿响」的痕迹</t>
+          <t>完成T久久望故人】任务。</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>除了时间。什么也没丢</t>
+          <t>这本小说真厉害！</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>解开两座日暑的秘密。</t>
+          <t>偷看常九爷的书稿。</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>与一位往昔神灵的谈话</t>
+          <t>喂——有人吗？</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>了解一位往神灵的故事。</t>
+          <t>在离岛中发现一处秘密通道</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5253,12 +5253,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>卧龙藏</t>
+          <t>猜猜我是谁？</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>了解关于「蜗】的故事。</t>
+          <t>获知T枕玉】老师的真实身份。</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>战祸不息</t>
+          <t>她和她的猫</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>将某个古老遗迹中的宝物卖个好价钱··</t>
+          <t>陪寝子前往影向山，寻找「阿响」的痕迹</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -5303,12 +5303,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>澡华池之影</t>
+          <t>除了时间。什么也没丢</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>帮助梵米尔取到他想要的景致。</t>
+          <t>解开两座日暑的秘密</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>零号玩家</t>
+          <t>与一位往昔神灵的谈话</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>陪小姜玩一场简单的游戏</t>
+          <t>了解一位往昔神灵的故事</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -5353,12 +5353,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>盘木森森。荫蔽家庭</t>
+          <t>卧龙藏螃</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>见证元鸿一家的故事。</t>
+          <t>了解关于「』的故事</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>命运初动</t>
+          <t>战祸不息</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>完成任务「拾枝者·戴因斯雷布」。</t>
+          <t>将某个古老遗迹中的宝物卖个好价钱?·</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -5403,12 +5403,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>贼蔻、狂人与漆黑之谜</t>
+          <t>澡华池之影</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>确认大盗宝家的异状。</t>
+          <t>帮助梵米尔取到他想要的景致。</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>命运交叉的废都</t>
+          <t>零号玩家</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>逃离异的遗迹。</t>
+          <t>陪小姜玩一场简单的游戏</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -5453,12 +5453,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>将诸神的力量付之一笑</t>
+          <t>盘木森森。荫蔽家庭</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>得知「命运的织机」正在进行中…·</t>
+          <t>见证元鸿一家的故事。</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>狂言破碎之时</t>
+          <t>命运初动</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>击退深渊使徒。</t>
+          <t>完成任务「拾枝者·戴因斯雷布」。</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>我们终将重逢</t>
+          <t>贼蔻、狂人与漆黑之谜</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>完成「我们终将重逢」。</t>
+          <t>确认大盗宝家的异状。</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>雷电将至</t>
+          <t>命运交叉的废都</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>得到搭乘「死兆星』号前往稻妻的机会。</t>
+          <t>逃离异的遗迹。</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -5553,12 +5553,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>振袖秋风问红叶</t>
+          <t>将诸神的力量付之一笑</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>完成「振袖秋风问红叶」。</t>
+          <t>得知「命运的织机』正在进行中……</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>朝着雷霆骤雨</t>
+          <t>狂言破碎之时</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>抵达「异人居留地」。</t>
+          <t>击退深渊使徒。</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -5603,12 +5603,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>格三十郎</t>
+          <t>我们终将重逢</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>顺利押送货物，离开离岛。</t>
+          <t>完成T我们终将重逢」。</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>所有人的愿望之诗</t>
+          <t>雷电将至</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>接触「永恒]的象征，「千手百眼神像」。</t>
+          <t>得到搭乘T死兆星】号前往稻妻的机会</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -5653,12 +5653,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>屏风后的白鹭公主</t>
+          <t>振袖秋风问红叶</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>与神里家的大小姐正式会面</t>
+          <t>完成「振袖秋风问红叶」。</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -5678,12 +5678,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>御守、仁义、天下一</t>
+          <t>朝着雷霆骤雨</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>完成I三个小心愿」。</t>
+          <t>抵达「异人居留地】</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -5703,12 +5703,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>牢屋敷花火祭</t>
+          <t>格三十郎</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>成功营救正胜。</t>
+          <t>顺利押送货物，离开离岛。</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -5728,12 +5728,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>直面雷光</t>
+          <t>所有人的愿望之诗</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>成为「眼狩令]的目标。</t>
+          <t>接触「永恒]的象征，「千手百眼神像]。</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>异人一</t>
+          <t>屏风后的白鹭公主</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>顺利融入反抗军中。</t>
+          <t>与神里家的大小姐正式会面</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -5778,12 +5778,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>不动鸣神。恒常乐土</t>
+          <t>御守、仁义、天下一</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>完成「不动鸣神，恒常乐土」。</t>
+          <t>完成T三个小心愿]。</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>无念无想，泡影断灭</t>
+          <t>牢屋敷花火祭</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>完成「无念无想，泡影断灭】</t>
+          <t>成功营救正胜。</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>SWORDFISHII</t>
+          <t>直面雷光</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>获得剑鱼二番队的认可</t>
+          <t>成为「眼狩令]的目标。</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>虽是露水般的愿望?··</t>
+          <t>异人一</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>找到派发邪眼的幕后黑手。</t>
+          <t>顺利融入反抗军中。</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>特大号花火祭</t>
+          <t>不动鸣神，恒常乐士</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>燃放烟花引开守卫。</t>
+          <t>完成「不动鸣神，恒常乐土」</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>御前生死斗</t>
+          <t>无念无想，泡影断灭</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>在「御前决斗』中，获得胜利。</t>
+          <t>完成「无念无想，泡影断灭」。</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>「他们]的愿望?·</t>
+          <t>SWORDFISHI</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>回应1千手百眼神像】中所有的愿望</t>
+          <t>获得剑鱼二番队的认可。</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -5953,12 +5953,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>千手百眼，天下人间</t>
+          <t>虽是露水般的愿望?··</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>完成「千手百眼，天下人间1</t>
+          <t>我到派发邪眼的幕后黑手</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -5978,12 +5978,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>「诸事平安」</t>
+          <t>特大号花火祭</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>与王平安一起重修铜雀的庙宇。</t>
+          <t>燃放烟花引开守卫</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>群玉临空</t>
+          <t>御前生死斗</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>完成群玉阁重建工作。</t>
+          <t>在「御前决斗』中，获得胜利。</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -6028,12 +6028,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>沧海生威</t>
+          <t>【他们」的愿望?··</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>击退「漩涡的余威】罩。</t>
+          <t>回应1千手百眼神像】中所有的愿望</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>前尘一梦</t>
+          <t>千手百眼，天下人间</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>见证村庄历史中的真相</t>
+          <t>完成「千手百眼，天下人间」。</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -6078,12 +6078,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>风起鹤归</t>
+          <t>「诸事平安」</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>完成「风起鹤归」。</t>
+          <t>与王平安一起重修铜雀的庙宇。</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -6095,20 +6095,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>美妙旅程：序</t>
+          <t>群玉临空</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>完成「美妙旅程」，解锁全部结局，</t>
+          <t>完成群玉阁重建工作。</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -6120,20 +6120,20 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>露雳闪雷真君</t>
+          <t>沧海生威</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>见证班尼特足以影响天气的厄运</t>
+          <t>击退T漩涡的余威】罩。</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -6145,20 +6145,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>诸邪退散</t>
+          <t>前尘一梦</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>完成寻妖觅邪记』，解锁全部结局。</t>
+          <t>见证村庄历史中的真相。</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -6170,20 +6170,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>心跳的记忆</t>
+          <t>天地万象</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>辣椒英雄</t>
+          <t>风起鹤归</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>制作错误的冰棍，引发重云1纯阳之体】的剧烈反应</t>
+          <t>完成「风起鹤归」。</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>能跨越的边界线</t>
+          <t>美妙旅程：序</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>完成「治愈的清泉」，解锁全部结局。</t>
+          <t>完成T美妙旅程」，解锁全部结局</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>偶像的可靠防线</t>
+          <t>露雳闪雷真君</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>成功劝走艾伯特和其他芭芭拉的粉丝</t>
+          <t>见证班尼特足以影响天气的厄运</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -6249,16 +6249,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>蒙德城的麻辣传说</t>
+          <t>运气即实力！</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>品尝芭芭拉的辣味饮料。</t>
+          <t>在不失误的情况下解开机关，取得宝藏</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -6274,16 +6274,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>完美而坚强的女仆</t>
+          <t>诸邪退散</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>完成「骑士修行之道！解锁全部结局。</t>
+          <t>完成1寻妖觅邪记！解锁全部结局。</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -6299,16 +6299,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>「……因为。」</t>
+          <t>慧眼识妖！</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>帮助诺艾尔找到自己强大的原因</t>
+          <t>正确鉴定所有情报。</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -6324,16 +6324,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>只有玫瑰知道的世界</t>
+          <t>辣椒英雄</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>阅读诺艾尔的学习笔记</t>
+          <t>制作错误的冰棍，引发重云「纯阳之体]的剧烈反应。</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -6349,16 +6349,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>消除焦虑的最好办法</t>
+          <t>能跨越的边界线</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>完成1骑士备考之道！解锁全部结局。</t>
+          <t>完成「治愈的清泉」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6374,16 +6374,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>女仆骑士不会受伤</t>
+          <t>偶像的可靠防线</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>与诺艾尔一起听过《异国骑士璃月行记》。</t>
+          <t>成功劝走艾伯特和其他芭芭拉的粉丝</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6399,16 +6399,16 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>迪奥娜特调，搅拌，不要摇</t>
+          <t>蒙德城的麻辣传说</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>完成「猫与特调酒」，解锁全部结局。</t>
+          <t>品尝芭芭拉的辣味饮料。</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>但是，代价是·…·</t>
+          <t>完美而坚强的女仆</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>帮助迪奥娜找到特制基底饮品，</t>
+          <t>完成T骑士修行之道！，解锁全部结局</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -6449,16 +6449,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>猫咪殿下</t>
+          <t>「……因为。」</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>将所有猫咪带回猫尾酒馆」。</t>
+          <t>帮助诺艾尔找到自己强大的原因</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -6474,16 +6474,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>皆大欢喜</t>
+          <t>只有玫瑰知道的世界</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>完成「家政官的日常工作」，解锁全部结局。</t>
+          <t>阅读诺艾尔的学习笔记</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -6499,16 +6499,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>家政高手</t>
+          <t>消除焦虑的最好办法</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>在规定时间内完成大扫除。</t>
+          <t>完成T骑士备考之道！解锁全部结局。</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>沧海不归客</t>
+          <t>女仆骑士不会受伤</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>与托马一起见证犬少将的故事</t>
+          <t>与诺艾尔一起听过《异国骑士璃月行记》</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>「高」人一等</t>
+          <t>蒙德做题王</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>完成鸣呼流·生长之术』，解锁全部结局，</t>
+          <t>阅读诺艾尔的学习笔记。</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -6574,16 +6574,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>骆级忍者</t>
+          <t>迪奥娜特调，搅拌，不要摇</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>在敏捷度训练中获得早袖的最高评价</t>
+          <t>完成T猫与特调酒」，解锁全部结局。</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -6599,16 +6599,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>料理效果：移动速度降低</t>
+          <t>但是，代价是…·</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>没能劝阻早抽的暴饮暴食?·</t>
+          <t>帮助迪奥娜找到特制基底饮品。</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -6624,16 +6624,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>海大将</t>
+          <t>猫咪殿下</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>完成「犬大将的特别行动」，解锁全部结局。</t>
+          <t>将所有猫咪带回T猫尾酒馆！</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -6649,16 +6649,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>说还是不说。这是个问题，</t>
+          <t>皆大欢喜</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>在八重堂察觉了希娜小姐的真实身份</t>
+          <t>完成T家政官的日常工作】，解锁全部结局。</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>南十字荣誉船员</t>
+          <t>家政高手</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>完成「南十字闪耀时」，解锁全部结局。</t>
+          <t>在规定时间内完成大扫除</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -6699,16 +6699,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>洒下甘露三千担</t>
+          <t>沧海不归客</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>与北斗共同参加了轻策庄的宴会。</t>
+          <t>与托马一起见证犬少将的故事</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -6724,16 +6724,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>孤云阁买家俱乐部</t>
+          <t>『高]人一等</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>询问了北斗真正交易的内容。</t>
+          <t>完成T鸣呼流·生长之术解锁全部结局</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -6749,16 +6749,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>天权伴星</t>
+          <t>骆级忍者</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>完成「玉阁归客至」，解锁全部结局。</t>
+          <t>在敏捷度训练中获得早袖的最高评价。</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -6774,16 +6774,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>过当防卫</t>
+          <t>料理效果：移动速度降低</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>石激起千层浪，凝光的假期看来无福消受了、</t>
+          <t>没能劝阻早抽的暴饮暴食?·</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -6799,16 +6799,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>曲终人未散</t>
+          <t>海大将</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>完成「弦歌知雅意」，解锁全部结局。</t>
+          <t>完成「犬大将的特别行动！解锁全部结局。</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -6824,16 +6824,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>愿此刻永恒</t>
+          <t>运势无常</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>与云董合影留念。</t>
+          <t>在神社抽到过所有的运势签</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -6845,20 +6845,20 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>风与异乡人</t>
+          <t>说还是不说。这是个问题</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>使用风元素吹散一株蒲公英。</t>
+          <t>在八重堂察觉了希娜小姐的真实身份。</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -6870,20 +6870,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>干峰万仞</t>
+          <t>南十字荣誉船员</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>掌握「岩』的元素力。</t>
+          <t>完成T南十学闪耀时！，解锁全部结局。</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -6895,20 +6895,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>流水叮咛</t>
+          <t>洒下甘露三千担</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>集齐全套《清泉之心》。</t>
+          <t>与北斗共同参加了轻策庄的宴会</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -6920,20 +6920,20 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>神戟狂言凌云霄</t>
+          <t>孤云阁实家俱乐部</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>集齐全套《神霄折载录》。</t>
+          <t>询问了北斗真正交易的内容</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -6945,20 +6945,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>醉客与狼的相遇</t>
+          <t>天权伴星</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>集齐全套《醉客轶事》。</t>
+          <t>完成T玉阁归客至！，解锁全部结局，</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -6970,20 +6970,20 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>尘世巡游·第一辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>清泉、白马与月光</t>
+          <t>有备才能无患</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>集齐全套《竹林月夜》。</t>
+          <t>鱼肉，当然是越多越好</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -6995,20 +6995,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>灿若惊雷</t>
+          <t>过当防卫</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>掌握「雷的元素力。</t>
+          <t>石激起千层浪，凝光的假期着来无福消受了。</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -7020,20 +7020,20 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>蒲公英的故乡</t>
+          <t>曲终人未散</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>集齐全套《浦公英海的狐狸》。</t>
+          <t>完成T弦歌知雅意」，解锁全部结局</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -7045,20 +7045,20 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>友谊与性的价值</t>
+          <t>愿此刻永恒</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>集齐全套《野猪公主》。</t>
+          <t>与云董合影留念。</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7070,20 +7070,20 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>心跳的记忆</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>百亿尽夜的百亿青春</t>
+          <t>严师出高徒</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>集齐全套《少女薇拉的忧郁》。</t>
+          <t>在不击中任何「蓝色稻草人]的情况下完成演练</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -7095,20 +7095,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>尘世巡游·第二辑</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>丘丘学的扩张</t>
+          <t>风与异乡人</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>集齐全套《丘丘人习俗考察》。</t>
+          <t>使用风元素吹散一株蒲公英。</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7120,20 +7120,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>冒险手艺</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>人铸赋形</t>
+          <t>干峰万仞</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>锻造一把四星武器。</t>
+          <t>掌握T岩]的元素力。</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7145,20 +7145,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>冒险手艺</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>生存专家</t>
+          <t>流水叮咛</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>掌握40种菜有的制作方法</t>
+          <t>集齐全套《清泉之心》。</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7170,20 +7170,20 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>冒险手艺</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>星级大厨</t>
+          <t>神戟狂言凌云霄</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>40个料理食谱达到熟练</t>
+          <t>集齐全套《神宵折戟录》。</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -7195,20 +7195,20 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>如日方升的旅程</t>
+          <t>醉客与狼的相遇</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>角色首次突破至6阶。</t>
+          <t>集齐全套《醉客轶事》。</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7220,20 +7220,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第一辑</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>百炼干锤</t>
+          <t>清泉、白马与月光</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>将一个武器突破至6阶。</t>
+          <t>集齐全套《竹林月夜》。</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7245,20 +7245,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>你所不知道的事</t>
+          <t>灿若惊雷</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>将16个角色好感等级提升至10级</t>
+          <t>掌握「雷的元素力。</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -7270,20 +7270,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>大地的馈赠</t>
+          <t>蒲公英的故乡</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>获取800次「藏金之花或启示之花的馈藏</t>
+          <t>集齐全套《浦公英海的狐狸》。</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -7295,20 +7295,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>英雄之礼</t>
+          <t>友谊与辆性的价值</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>获得四星圣遗物。</t>
+          <t>集齐全套《野猪公主》。</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -7320,20 +7320,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>长歌回响</t>
+          <t>百亿夜的百亿青春</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>将一个四星圣遗物强化至最高等级</t>
+          <t>集齐全套《少女薇拉的忧郁》。</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -7345,20 +7345,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>尘世巡游·第二辑</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>神话秘藏</t>
+          <t>丘丘学的扩张</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>获得五星圣遗物。</t>
+          <t>集齐全套《丘丘人习俗考察》。</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -7370,20 +7370,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>英雄之旅</t>
+          <t>冒险手艺</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>祝圣篇章</t>
+          <t>人铸赋形</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>将一个五星圣遗物强化至最高等级</t>
+          <t>锻造一把四星武器。</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -7395,20 +7395,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>冒险手艺</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>大地勘探·蒙德</t>
+          <t>生存专家</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>点亮整个蒙德地图（龙脊雪山地区除外）。</t>
+          <t>掌握40种菜有的制作方法</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -7420,20 +7420,20 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>冒险手艺</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>千风拂去</t>
+          <t>星级大厨</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>解锁蒙德的所有传送锚点（龙脊雪山地区除外）。</t>
+          <t>40个料理食谱达到熟练。</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -7445,20 +7445,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>且听风吟</t>
+          <t>如日方升的旅程</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>将蒙德的七天神像供奉至满级</t>
+          <t>角色首次突破至6阶。</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -7470,20 +7470,20 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>圣巡礼·蒙德</t>
+          <t>百炼干锤</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>解除蒙德所有地灵的封印。</t>
+          <t>将一个武器突破至6阶。</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -7495,20 +7495,20 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>风中引路人</t>
+          <t>你所不知道的事</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>在蒙德追随40个仙灵，并点亮仙灵之庭（龙脊雪山地区除外）</t>
+          <t>将16个角色好感等级提升至10级</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -7520,20 +7520,20 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>逐风的寻宝者</t>
+          <t>大地的馈赠</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>在蒙德开启400个宝箱（龙脊雪山地区除外）。</t>
+          <t>获取800次T藏金之花】或「启示之花】的馈藏</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -7545,20 +7545,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>蒙德·风与牧歌的城邦</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>逐风的冒险家</t>
+          <t>英雄之礼</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>在蒙德，完成15个大世界机关限时挑战（龙脊雪山地区除外）。</t>
+          <t>获得四星圣遗物。</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -7570,20 +7570,20 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>大地勘探·璃月</t>
+          <t>长歌回响</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>点亮整个璃月地图。</t>
+          <t>将一个四星圣遗物强化至最高等级。</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -7595,20 +7595,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>尽览群岩</t>
+          <t>神话秘藏</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>解锁璃月的所有传送锚点。</t>
+          <t>获得五星圣遗物。</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -7620,20 +7620,20 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>英雄之旅</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>重峰不移</t>
+          <t>祝圣篇章</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>将璃月的七天神像供奉至满级</t>
+          <t>将一个五星圣遗物强化至最高等级</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -7645,20 +7645,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>圣巡礼·璃月</t>
+          <t>大地勘探·蒙德</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>解除璃月所有地灵的封印。</t>
+          <t>点亮整个蒙德地图（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7670,20 +7670,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>岩间引路人</t>
+          <t>千风拂去</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>在璃月追随60个仙灵，并点亮仙灵之庭，</t>
+          <t>解锁蒙德的所有传送锚点（龙香雪山地区除外）。</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -7695,20 +7695,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>磐岩的寻宝者</t>
+          <t>且听风吟</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>在璃月开启800个宝箱。</t>
+          <t>将蒙德的七天神像供奉至满级。</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -7720,20 +7720,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>璃月·岩与契约的海港</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>磐岩的冒险家</t>
+          <t>圣巡礼·蒙德</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>在璃月，完成40个大世界机关限时挑战</t>
+          <t>解除蒙德所有地灵的封印</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -7745,20 +7745,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>「老实点！」</t>
+          <t>风中引路人</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>达成10次：持续冻结一名敌人超过10秒</t>
+          <t>在蒙德追随40个仙灵，并点亮仙灵之庭（龙香雪山地区除外）</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -7770,20 +7770,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>「随风而去吧！J</t>
+          <t>逐风的寻宝者</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>达成10次：2秒内。触发冰、水、火、雷元素四种扩散反应</t>
+          <t>在蒙德开启400个宝箱（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -7795,20 +7795,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>蒙德·风与牧歌的城邦</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>白色的季节</t>
+          <t>逐风的冒险家</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>达成10次：2秒内，冻结4名敌人</t>
+          <t>在蒙德。完成15个大世界机关限时挑战（龙脊雪山地区除外）。</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -7820,20 +7820,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>低温环境导致可用电量下降</t>
+          <t>大地勘探·璃月</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>达成10次：2秒内，通过超导反应打败4名敌人</t>
+          <t>点亮整个璃月地图。</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -7845,20 +7845,20 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>「艺术就是……」</t>
+          <t>尽览群岩</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>达成10次：2秒内，通过超载反应打败4名敌人</t>
+          <t>解锁璃月的所有传送锚点。</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -7870,20 +7870,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>…必须毁灭两次</t>
+          <t>重峰不移</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>达成10次：2秒内，通过融化反应打败4名敌人，</t>
+          <t>将璃月的七天神像供奉至满级。</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -7895,20 +7895,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>元素专家</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>『略大于突如其来的爱情。」</t>
+          <t>圣巡礼·璃月</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>达成10次：2秒内，通过感电反应打败4名敌人</t>
+          <t>解除璃月所有地灵的封印</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -7920,20 +7920,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>「无他，惟手熟尔」</t>
+          <t>岩间引路人</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>用弓箭射中在空中飞行的鹰。</t>
+          <t>在璃月追随60个仙灵，并点亮仙灵之庭</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -7945,20 +7945,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>百步穿杨</t>
+          <t>磐岩的寻宝者</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>在远距离，通过瞄准射击击中敌人要害</t>
+          <t>在瑞月开启800个宝箱，</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -7970,20 +7970,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>神射手</t>
+          <t>璃月·岩与契约的海港</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>魔弹射手</t>
+          <t>磐岩的冒险家</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>在超远距离，通过瞄准射击击中敌人要害。</t>
+          <t>在璃月，完成40个大世界机关限时挑战</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -7995,7 +7995,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -8003,12 +8003,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>全什么外壳来着？</t>
+          <t>「老实点！J</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>粉碎一个大型岩史莱姆的岩晶护罩。</t>
+          <t>达成10次：持续冻结一名敌人超过10秒</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -8020,7 +8020,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -8028,12 +8028,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>特斯拉球还流行吗？</t>
+          <t>「随风而去吧！」</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>粉碎一个雷萤术士的护罩，</t>
+          <t>达成10次：2秒内，触发冰、水、火、雷元素四种扩散反应</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -8045,7 +8045,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -8053,12 +8053,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>谁的节奏天国？</t>
+          <t>白色的季节</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>阻止深渊法师恢复护罩。</t>
+          <t>达成10次：2秒内，冻结4名敌人</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -8070,7 +8070,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>挑战者·第一辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -8078,12 +8078,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>赫炎的达达乌帕</t>
+          <t>低温环境导致可用电量下降</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>点燃一扇木盾丘丘暴徒的木盾。</t>
+          <t>达成10次：2秒内，通过超导反应打败4名敌人</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -8095,20 +8095,20 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>清泉的猎人</t>
+          <t>「艺术就是……』</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>击败过纯水精灵召唤的每一种幻形生物</t>
+          <t>达成10次：2秒内，通过超载反应打败4名敌人</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -8120,20 +8120,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>水刑物语</t>
+          <t>·必须毁灭两次</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>在未被部分幻形生物消散时留下的水弹命中的情况下，击败纯水精灵</t>
+          <t>达成10次：2秒内，通过融化反应打败4名敌人</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -8145,20 +8145,20 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>元素专家</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>…出奇迹？</t>
+          <t>「略大于突如其来的爱情。」</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>击败「奇怪的丘丘人150次。</t>
+          <t>达成10次：2秒内，通过感电反应打败4名敌人</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8170,20 +8170,20 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>提瓦特的园子，不畏严寒</t>
+          <t>「无他。惟手熟尔</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>通过攻击急冻树的花冠，使其瘫痪</t>
+          <t>用弓箭射中在空中飞行的鹰</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -8195,20 +8195,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>提瓦特的园丁。不畏酷热</t>
+          <t>百步穿杨</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>通过攻击爆炎树的花冠，使其瘫痪</t>
+          <t>在远距离，通过瞄准射击击中敌人要害。</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8220,20 +8220,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>神射手</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>天降正义！</t>
+          <t>魔弹射手</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>维持下落攻击状态超过5秒后，命中敌人。</t>
+          <t>在超远距离，通过瞄准射击击中敌人要害。</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -8245,20 +8245,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>第三类永动机</t>
+          <t>全什么外壳来着？</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>在15秒内，施放5次元素爆发</t>
+          <t>粉碎一个大型岩史莱姆的岩晶护罩。</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -8270,20 +8270,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>挑战者·第二辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>约等于天下无敌</t>
+          <t>特斯拉球还流行吗？</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>使一名角色同时处于三种或更多不同的护盾护下。</t>
+          <t>粉碎一个雷萤术士的护罩</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -8295,20 +8295,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>抢断</t>
+          <t>谁的节奏天国？</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>打落冰弹丘丘人手中的冰史莱姆，</t>
+          <t>阻止深渊法师恢复护罩。</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -8320,20 +8320,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第一辑</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>推倒这面墙！</t>
+          <t>赫炎的达达乌帕</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>摧毁一扇冰盾丘丘暴徒的盾牌，</t>
+          <t>点燃一扇木盾丘丘暴徒的木盾</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -8345,20 +8345,20 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>少冰无糖</t>
+          <t>清泉的猎人</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>在冰丘丘萨满没能创造冰柱的情况下，击败冰丘丘萨满。</t>
+          <t>击败过纯水精灵召唤的每一种幻形生物</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -8370,20 +8370,20 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>…摔得越重</t>
+          <t>水刑物语</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>摧毁冰丘丘萨满的冰柱。</t>
+          <t>在未被部分幻形生物消散时留下的水弹命中的情况下，击败纯水精灵</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -8395,20 +8395,20 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>这个丘丘不太冷</t>
+          <t>…出奇迹？</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>在魔化状态结束前，击败丘丘霜铠王。</t>
+          <t>击败「奇怪的丘丘人150次。</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -8420,20 +8420,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>玫瑰花蕾·…·</t>
+          <t>提瓦特的园子，不畏严寒</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>粉碎一个冰萤术士的护罩。</t>
+          <t>通过攻击急冻树的花冠，使其瘫痪</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -8445,20 +8445,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>国王刺客</t>
+          <t>提瓦特的园丁，不畏酷热</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>击败龙脊雪山的真正王者?··“</t>
+          <t>通过攻击爆炎树的花冠，使其瘫痪</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -8470,20 +8470,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>挑战者·第三辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>歌利亚</t>
+          <t>天降正义！</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>通过攻击要害，瘫痪迹重机</t>
+          <t>维持下落攻击状态超过5秒后，命中敌人</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -8495,20 +8495,20 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>·太阳岩龙蜥、月亮岩龙蜥</t>
+          <t>第三类永动机</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>击败过岩龙蜥的所有元素形态</t>
+          <t>在15秒内，施放5次元素爆发</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -8520,20 +8520,20 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第二辑</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>岩元素反应？</t>
+          <t>约等于天下无敌</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>击败过古岩龙蜥所有元素形态</t>
+          <t>使一名角色同时处于三种或更多不同的护盾护下。</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -8545,20 +8545,20 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>谣</t>
+          <t>抢断</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>在魔偶剑鬼挑鲜时击败魔偶剑鬼</t>
+          <t>打落冰弹丘丘人手中的冰史莱姆</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -8570,20 +8570,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>废图毁腾</t>
+          <t>推倒这面墙！</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>在场上没有丘丘雷图腾的情况下，击败雷丘丘萨满</t>
+          <t>摧毁一扇冰盾丘丘暴徒的盾牌</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -8595,20 +8595,20 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>被命运诅咒的王</t>
+          <t>少冰无糖</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>击败强化状态下的丘丘雷兜王。</t>
+          <t>在冰丘丘萨满没能创造冰柱的情况下，击败冰丘丘萨满</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -8620,20 +8620,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>飞越水疗馆</t>
+          <t>…摔得越重</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>不被「水牢』攻击命中的情况下，击败藏镜仕女。</t>
+          <t>摧毁冰丘丘萨满的冰柱</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -8645,20 +8645,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>完全静默</t>
+          <t>这个丘丘不太冷</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>在无相之火只进入一次熄灭状态的情况下，击败无相之火。</t>
+          <t>在魔化状态结束前，击败丘丘霜铠。</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -8670,20 +8670,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>鸣神岛作战</t>
+          <t>玫瑰花蕾··</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>击败处于虚弱状态下的恒常机关阵列。</t>
+          <t>粉碎一个冰萤术士的护罩</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -8695,20 +8695,20 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>挑战者·第四辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>画龙点睛</t>
+          <t>国王刺客</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>在战斗中不曾获取过护盾的情况下，击败若陀龙王。</t>
+          <t>击败龙脊雪山的真正王者?··“</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -8720,20 +8720,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第三辑</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>深邃的探究者</t>
+          <t>歌利亚</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>深境螺旋：通过12层</t>
+          <t>通过攻击要害，瘫痪遗迹重机</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -8745,20 +8745,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>来自深境</t>
+          <t>太阳岩龙蜥、月亮岩龙</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>深境螺旋：在没有受到伤害的情况下完成第8层第3间。</t>
+          <t>击败过岩龙蜥的所有元素形态。</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -8770,20 +8770,20 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>My Precious</t>
+          <t>岩元素反应？</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>深境螺旋：在地脉镇石完好的情况下完成第2层第2间</t>
+          <t>击败过古岩龙蜥所有元素形态。</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -8795,20 +8795,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>秘境与深境螺旋·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>渊星斗士</t>
+          <t>谣</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>深境螺旋：取得「深境回廊]的所有渊星</t>
+          <t>在魔偶剑鬼挑鲜时击败魔偶剑鬼</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -8820,20 +8820,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Olah!·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>.Odomu?</t>
+          <t>废图毁腾</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>在语言交流』中与丘丘人交流成功。</t>
+          <t>在场上没有丘丘雷图腾的情况下，击败雷丘丘萨满。</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -8845,20 +8845,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Olah!·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Yo dala?</t>
+          <t>被命运诅咒的王</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>在诗歌交流』中与丘丘人交流成功。</t>
+          <t>击败强化状态下的丘丘雷兜王。</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -8870,45 +8870,45 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>至东国不相信眼泪·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>追求极致</t>
+          <t>飞越水疗馆</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>在「说到做到：J中完美完成查耶维奇的所有委托。</t>
+          <t>不被T水牢】攻击命中的情况下，击败藏镜任女。</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>0/1</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>至东国不相信眼泪·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>有一说一</t>
+          <t>完全静默</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>在「来自冬天的故事』中探听到所有关于至冬国的情报。</t>
+          <t>在无相之火只进入一次熄灭状态的情况下，击败无相之火。</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -8920,20 +8920,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>帝君故事</t>
+          <t>鸣神岛作战</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>搜集到「岩游记』中所有有关岩王帝君的故事。</t>
+          <t>击败处于虚弱状态下的恒常机关阵列。</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -8945,20 +8945,20 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>挑战者·第四辑</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>旅者且留步…·</t>
+          <t>画龙点睛</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>在「且听下回分解】中听完《裁雨声》》。</t>
+          <t>在战斗中不曾获取过护盾的情况下，击败若陀龙王。</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -8970,20 +8970,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>岩港往事·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>且听我一言。</t>
+          <t>深邃的探究者</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>在「且听下回分解」中听完《海山履云记》。</t>
+          <t>深境螺旋：通过12层。</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -8995,20 +8995,20 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>[来坦，来补。来输出</t>
+          <t>来自深境</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>与其他玩家一同完成100次秘境挑战。</t>
+          <t>深境螺旋：在没有受到伤害的情况下完成第8层第3间</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -9020,20 +9020,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>「我来，我见，我征服」</t>
+          <t>My Precious</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>在其他玩家的世界中，采集50个地区特产。</t>
+          <t>深境螺旋：在地脉镇石完好的情况下完成第2层第2间</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -9045,20 +9045,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>秘境与深境螺旋·第一辑</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>「你家风晶蝶还蛮大的」</t>
+          <t>渊星斗士</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之风</t>
+          <t>深境螺旋：取得「深境回廊]的所有渊星</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -9070,20 +9070,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>Olah!·第一辑</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>「.…微笑就可以了。</t>
+          <t>.Odomu?</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之雷。</t>
+          <t>在「语言交流』中与丘丘人交流成功。</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -9095,20 +9095,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>Olah!·第一辑</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>[原来那个柱子能打啊】</t>
+          <t>Yo dala?</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之岩</t>
+          <t>在「诗歌交流】中与丘丘人交流成功</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -9120,45 +9120,45 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>至东国不相信眼泪·第一辑</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>「急冻树、青空、南风</t>
+          <t>追求极致</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜急冻树</t>
+          <t>在说到做到：中完美完成查耶维奇的所有委托。</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>0/1</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>至东国不相信眼泪·第一辑</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>[Thisis fineJ</t>
+          <t>有一说一</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜爆炎树</t>
+          <t>在1来自冬天的故事】中探听到所有关于至冬国的情报</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -9170,20 +9170,20 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>一条名叫洛蒂娅的鱼</t>
+          <t>帝君故事</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜纯水精灵。</t>
+          <t>搜集到岩游记』中所有有关岩王帝君的故事。</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -9195,20 +9195,20 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>异世相逢·第一辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>狼族盟约</t>
+          <t>旅者且留步··</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜奔狼领的王者。</t>
+          <t>在！耳听下回分解】中听完《裁声》。</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -9220,20 +9220,20 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>岩港往事·第一辑</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>邪眼的性能不是战力差距的决定因素</t>
+          <t>且听我一言。</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜「公子」。</t>
+          <t>在厂直听下回分解】中听完《海山履云记》。</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -9245,20 +9245,20 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>「山动了」</t>
+          <t>「来坦。来补。来输出」</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜古岩龙蜥。</t>
+          <t>与其他玩家一同完成100次秘境挑战</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -9270,20 +9270,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>往日重现</t>
+          <t>［我来，我见，我征服]</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜若陀龙王！</t>
+          <t>在其他玩家的世界中，采集50个地区特产。</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -9295,20 +9295,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>未来解冻计划</t>
+          <t>「你家风晶蝶还蛮大的」</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之冰，</t>
+          <t>与其他玩家一同战胜无相之风</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -9320,20 +9320,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>一线断时……·</t>
+          <t>「.…微笑就可以了。」</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜魔偶剑鬼，</t>
+          <t>与其他玩家一同战胜无相之雷。</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -9345,20 +9345,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>篝火大作战</t>
+          <t>[原来那个柱子能打啊】</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜无相之火</t>
+          <t>与其他玩家一同战胜无相之岩。</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -9370,20 +9370,20 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>异世相逢·第二辑</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>了机关阵列没有永恒]</t>
+          <t>[急冻树、青空、南风，</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>与其他玩家一同战胜恒常机关阵列</t>
+          <t>与其他玩家一同战胜急冻树</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -9395,20 +9395,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>大地勘探·龙脊雪山</t>
+          <t>TThis is finel</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>点亮龙脊雪山的地图。</t>
+          <t>与其他玩家一同战胜爆炎树。</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -9420,20 +9420,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>冰峰踏破</t>
+          <t>一条名叫洛蒂娅的鱼</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>解锁龙脊雪山的所有传送锚点</t>
+          <t>与其他玩家一同战胜纯水精灵。</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -9445,20 +9445,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第一辑</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>踏雪引路人</t>
+          <t>狼族盟约</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>在龙脊雪山追随20个温暖仙灵，并点亮仙灵之庭</t>
+          <t>与其他玩家一同战胜奔狼领的主者。</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -9470,20 +9470,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>雪山的寻宝者</t>
+          <t>邪眼的性能不是战力差距的决定因素</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>在龙脊雪山开启160个宝箱，</t>
+          <t>与其他玩家一同战胜「公子」。</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -9495,20 +9495,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>赤红的新芽</t>
+          <t>「山动了」</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>将忍冬之树供奉至12级。</t>
+          <t>与其他玩家一同战胜古岩龙蜥。</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -9520,20 +9520,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>寒天之钉</t>
+          <t>往日重现</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>将奇怪的大柱子1升起。</t>
+          <t>与其他玩家一同战胜若陀龙王。</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -9545,20 +9545,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>雪山上的来客</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>龙与枪</t>
+          <t>未来解冻计划</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>利用「龙]的遗，制造武器。</t>
+          <t>与其他玩家一同战胜无相之冰。</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -9570,20 +9570,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>洞天无别景?·</t>
+          <t>一线断时…·</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>使用「尘歌壶』进入「洞天』。</t>
+          <t>与其他玩家一同战胜魔偶剑鬼。</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -9595,20 +9595,20 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>前方高仙力反应</t>
+          <t>篝火大作战</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>3个洞天形态的洞天仙力达到20000。</t>
+          <t>与其他玩家一同战胜无相之火。</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -9620,20 +9620,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>异世相逢·第二辑</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>壶中密友</t>
+          <t>「机关阵列没有永恒]</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>与壶灵的信任等阶达到10级</t>
+          <t>与其他玩家一同战胜恒常机关阵列</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -9645,20 +9645,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>伐伐伐伐木工</t>
+          <t>大地勘探·龙脊雪山</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>获得2000份木材。</t>
+          <t>点亮龙脊雪山的地图。</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -9670,20 +9670,20 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>宝钱大亨</t>
+          <t>冰峰踏破</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>获得50000份洞天宝钱。</t>
+          <t>解锁龙脊雪山的所有传送锚点。</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -9695,20 +9695,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>不止是个小板凳</t>
+          <t>踏雪引路人</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>制作600个摆设。</t>
+          <t>在龙脊雪山追随20个温暖仙灵，并点亮仙灵之庭</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -9720,20 +9720,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>来点颜色？</t>
+          <t>雪山的寻宝者</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>制作600份染料。</t>
+          <t>在龙脊雪山开启160个宝箱</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -9745,20 +9745,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>标准图样</t>
+          <t>赤红的新芽</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>习得180份摆设图纸。</t>
+          <t>将忍冬之树供奉至12级</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -9770,20 +9770,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>世外洞天·第一辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>我的…地盘</t>
+          <t>寒天之钉</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>在一个洞天形态中，同时放置300个摆设</t>
+          <t>将奇怪的大柱子』升起。</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -9795,20 +9795,20 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>雪山上的来客</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>壶中贵客</t>
+          <t>龙与枪</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>邀请同伴入驻「尘歌壶」。</t>
+          <t>利用「龙]的遗，制造武器</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -9820,20 +9820,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>围炉夜谈</t>
+          <t>洞天无别景?·</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>解锁30段同伴互动对话。</t>
+          <t>使用「尘歌壶』进入洞天」</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -9845,20 +9845,20 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>世外洞天·第二辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>决胜的礼物！</t>
+          <t>前方高仙力反应</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>获得20份同伴赠礼</t>
+          <t>3个洞天形态的洞天仙力达到20000</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -9870,95 +9870,95 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>我们需要更多作物！</t>
+          <t>壶中密友</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>在r贵本之道-『玄此玉田中收获800个采集物</t>
+          <t>与壶灵的信任等阶达到10级</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>338/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>花开之洞天</t>
+          <t>伐伐伐伐木工</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>在T贵本之道-『此芝田』中收获800个采集物。</t>
+          <t>获得2000份木材。</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>252/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>采集时间到！</t>
+          <t>宝钱大亨</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>在T贵本之道-『楚此田』中收获800个采集物。</t>
+          <t>获得50000份洞天宝钱。</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>201/800</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>世外洞天·第三辑</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>传送空间棋盘</t>
+          <t>不止是个小板凳</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>在「尘歌壶』内首次设置「洞天锚点」。</t>
+          <t>制作600个摆设。</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -9970,20 +9970,20 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>大地勘探·雷光所照之王·其一</t>
+          <t>来点颜色？</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>点亮稻妻区域中，鸣神岛、神无家与八酝岛的地图，</t>
+          <t>制作600份染料。</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -9995,20 +9995,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>跨越雷鸣的大地·其一</t>
+          <t>标准图样</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，鸣神岛、神无家与八岛所有传送锚点。</t>
+          <t>习得180份摆设图纸</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -10020,20 +10020,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第一辑</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>圣巡礼·稻妻天领·其一</t>
+          <t>我的…地盘</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>解除稻妻区域中，鸣神岛、神无家与八岛所有地灵的封印</t>
+          <t>在一个洞天形态中，同时放置300个摆设</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -10045,20 +10045,20 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>隽永如电</t>
+          <t>壶中贵客</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>将稻妻的七天神像供奉至满级</t>
+          <t>邀请同伴入驻「尘歌壶」。</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -10070,20 +10070,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>神篱凭代</t>
+          <t>围炉夜谈</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>将T神樱着顾J等级提升至满级</t>
+          <t>解锁30段同伴互动对话</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -10095,20 +10095,20 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第二辑</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>鸣草丛中的捕手·其一</t>
+          <t>决胜的礼物！</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>在稻妻的鸣神岛、神无家与八岛，追上40个雷灵。</t>
+          <t>获得20份同伴赠礼</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -10120,95 +10120,95 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>烁光引路人·其一</t>
+          <t>我们需要更多作物！</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八岛追随16个仙灵，并点亮仙灵之</t>
+          <t>在r贵本之道-『玄此玉田中收获800个采集物</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>346/800</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>循雷的寻宝者·其一</t>
+          <t>花开之洞天</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八岛开启300个宝箱，</t>
+          <t>在「贵本之道-『此芝田』J中收获800个采集物。</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>259/800</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>异人行芝居</t>
+          <t>采集时间到！</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>完成「神樱大」。</t>
+          <t>在「贵本之道-『楚此田』J中收获800个采集物。</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>209/800</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之一</t>
+          <t>世外洞天·第三辑</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>踏鞘物语</t>
+          <t>传送空间棋盘</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>解除「御影炉心』的危机。</t>
+          <t>在T尘歌壶』内首次设置r洞天点」</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -10224,16 +10224,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>遗怨的回音</t>
+          <t>大地勘探·雷光所照之土·其一</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>完成了「远吕羽氏遗事】系列任务</t>
+          <t>点亮稻妻区域中，鸣神岛、神无家与八酝岛的地图。</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -10249,16 +10249,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>循雷的冒险家·其一</t>
+          <t>跨越雷鸣的大地·其一</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>在稻妻区域的鸣神岛、神无家与八岛，完成24个大世界机关限时</t>
+          <t>解锁稻妻区域中，鸣神岛、神无家与八酝岛所有传送铺点</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -10270,20 +10270,20 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>大地勘探·雷光所照之土·其二</t>
+          <t>圣巡礼·稻妻天领·其一</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>点亮稻妻区域中，海岛与清籁岛的地图</t>
+          <t>解除稻妻区域中。鸣神岛、神无家与八岛所有地灵的封印</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -10295,20 +10295,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>跨越雷鸣的大地·其二</t>
+          <t>隽永如电</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，海岛与清赖岛所有的传送锚点。</t>
+          <t>将稻妻的七天神像供奉至满级。</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -10320,20 +10320,20 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>圣巡礼·稻妻天领·其二</t>
+          <t>神凭代</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>解锁稻妻区域中，海岛与清岛所有地灵的封印</t>
+          <t>将T神樱着顾J等级提升至满级</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -10345,20 +10345,20 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>鸣草丛中的捕手·其二</t>
+          <t>鸣草丛中的捕手·其一</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清岛追上16个雷灵！</t>
+          <t>在稻妻的鸣神岛、神无家与八岛，追上40个雷灵。</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -10370,20 +10370,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>烁光引路人·其二</t>
+          <t>烁光引路人·其一</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清籁岛追随6个仙灵，并点亮仙灵之庭</t>
+          <t>在稻妻区域的鸣神岛、神无家与八酝岛追随16个仙灵，并点亮仙灵之</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -10395,20 +10395,20 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>循雷的寻宝者·其二</t>
+          <t>循雷的寻宝者·其一</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>在稻妻的海岛与清籁岛开启160个宝箱</t>
+          <t>在稻妻区域的鸣神岛、神无家与八岛开启300个宝箱</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -10420,20 +10420,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>循雷的冒险家·其二</t>
+          <t>异人被行芝居</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>在海岛与清赖岛完成24个大世界机关限时挑战</t>
+          <t>完成「神樱大」。</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -10445,20 +10445,20 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>清籁逐雷记</t>
+          <t>踏鞘物语</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>完成「清逐雷记】</t>
+          <t>解除「御影炉心』的危机</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -10470,20 +10470,20 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>稻妻·雷与永恒的群岛·其之二</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>一样的月光</t>
+          <t>遗怨的回音</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>完成「月浴之渊」。</t>
+          <t>完成了1远吕羽氏遗事】系列任务。</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -10495,20 +10495,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之一</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>大地勘探·鹤观</t>
+          <t>循雷的冒险家·其一</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>点亮鹤观的地图。</t>
+          <t>在稻妻区域的鸣神岛、神无家与八岛，完成24个大世界机关限时</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -10520,20 +10520,20 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>雾海尽头</t>
+          <t>大地勘探·雷光所照之土·其二</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>解锁鹤观所有的传送锚点。</t>
+          <t>点亮稻妻区域中，海岛与清赖岛的地图</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -10545,20 +10545,20 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>圣巡礼·鹤观</t>
+          <t>跨越雷鸣的大地·其二</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>解锁鹤观所有地灵的封印。</t>
+          <t>解锁稻妻区域中，海岛与清赖岛所有的传送锚点。</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -10570,20 +10570,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>雾夜的灼灼电影</t>
+          <t>圣巡礼·稻妻天领·其二</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>在鹤观追上6个雷灵，</t>
+          <t>解锁稻妻区域中。海岛与清籁岛所有地灵的封印</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -10595,20 +10595,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>深雾引路人</t>
+          <t>鸣草丛中的捕手·其二</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>在鹤观追随6个仙灵，并点亮仙灵之庭。</t>
+          <t>在稻妻的海岛与清籁岛追上16个雷灵。</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -10620,20 +10620,20 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>迷失的寻宝者</t>
+          <t>烁光引路人·其二</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>在鹤观开启120个宝箱。</t>
+          <t>在稻妻的海岛与清籁岛追随6个仙灵，并点亮仙灵之庭。</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -10645,20 +10645,20 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>迷失的冒险家</t>
+          <t>循雷的寻宝者·其二</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>在鹤观完成12个大世界机关限时挑战。</t>
+          <t>在稻妻的海岛与清籁开启160个宝箱。</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -10670,20 +10670,20 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>雾海纪行</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>雷与永远</t>
+          <t>循雷的冒险家·其二</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>完成某位作家的取材委托。</t>
+          <t>在海岛与清岛完成24个大世界机关限时挑战。</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -10695,45 +10695,45 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>通通400铃</t>
+          <t>清籁逐雷记</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>成功钓鱼2000次。</t>
+          <t>完成「清籁逐雷记」。</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>921/2000</t>
+          <t>达成</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>稻妻·雷与永恒的群岛·其之二</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>稚子敲针作钓钩</t>
+          <t>一样的月光</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>首次成功钓鱼。</t>
+          <t>完成「月浴之渊]。</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -10745,20 +10745,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>[恭喜这位，喜提鱼缸」</t>
+          <t>大地勘探·鹤观</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>首次钓获观赏鱼。</t>
+          <t>点亮鹤观的地图。</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -10770,20 +10770,20 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>被打碎的水中月亮</t>
+          <t>雾海尽头</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>首次钓获只在夜间出没的鱼儿</t>
+          <t>解锁鹤观所有的传送锚点。</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -10795,20 +10795,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>「叫我以实玛利。」</t>
+          <t>圣巡礼·鹤观</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>在其他玩家的世界中完成一次钓鱼。</t>
+          <t>解锁鹤观所有地灵的封印。</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -10820,20 +10820,20 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>渔民杀机</t>
+          <t>雾夜的灼灼电影</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>从钓鱼协会处购买一根鱼竿。</t>
+          <t>在鹤观追上6个雷灵</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -10845,20 +10845,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>尽倾江海里</t>
+          <t>深雾引路人</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>成功制作20次鱼饵。</t>
+          <t>在鹤观追随6个仙灵，并点亮仙灵之庭</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -10870,20 +10870,20 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>正经的钓鱼学位</t>
+          <t>迷失的寻宝者</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>解锁20个鱼类图鉴</t>
+          <t>在鹤观开启120个宝箱。</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -10895,20 +10895,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>中场</t>
+          <t>迷失的冒险家</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>在稻妻，通过钓鱼钓到散落的书页，</t>
+          <t>在鹤观完成12个大世界机关限时挑战。</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -10920,20 +10920,20 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>提瓦特钓鱼指南·第一辑</t>
+          <t>雾海纪行</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>张力稳定锚</t>
+          <t>雷与永远</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>鱼竿始终保持在最佳张力区的情况下成功钓鱼10次</t>
+          <t>完成某位作家的取材委托</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -10945,7 +10945,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -10953,24 +10953,24 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>「……岂知夜色……』</t>
+          <t>通通400铃</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>点亮渊下宫的地图。</t>
+          <t>成功钓鱼2000次。</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>达成</t>
+          <t>924/2000</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -10978,12 +10978,12 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>常世之大权</t>
+          <t>稚子敲针作钓钩</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>解锁渊下宫所有的传送锚点。</t>
+          <t>首次成功钓鱼。</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -10995,7 +10995,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -11003,12 +11003,12 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>福斯福洛斯的指引</t>
+          <t>[恭喜这位，喜提鱼缸】</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>在渊下宫追随30个仙灵，并点亮仙灵之庭</t>
+          <t>首次钓获观赏鱼。</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -11020,7 +11020,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -11028,12 +11028,12 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>赫斯珀洛斯的好东西</t>
+          <t>被打碎的水中月亮</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>在渊下宫开启160个宝箱</t>
+          <t>首次钓获只在夜间出没的鱼儿。</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -11045,7 +11045,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -11053,12 +11053,12 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>卡伊洛斯的时时刻刻</t>
+          <t>「叫我以实玛利。」</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>在渊下宫完成12个大世界机关限时挑战</t>
+          <t>在其他玩家的世界中完成一次钓鱼</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -11070,7 +11070,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>白昼之光</t>
+          <t>提瓦特钓鱼指南·第一辑</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -11078,15 +11078,265 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>火鼠裘、龙首珠、佛前钵和···</t>
+          <t>渔民杀机</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>取得露子委托的珊瑚枝条。</t>
+          <t>从鱼协会处购买一根鱼竿。</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>7</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>尽倾江海里</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>成功制作20次鱼饵</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>8</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>正经的钓鱼学位</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>解锁20个鱼类图鉴</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>9</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>中场</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>在稻妻，通过钓鱼钓到散落的书页</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>提瓦特钓鱼指南·第一辑</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>10</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>张力稳定锚</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>鱼竿始终保持在最佳张力区的情况下成功钓鱼10次</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>「.…岂知夜色·…·』</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>点亮渊下宫的地图。</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>2</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>常世之大权</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>解锁渊下宫所有的传送锚点。</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>3</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>福斯福洛斯的指引</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>在渊下宫追随30个仙灵，并点亮仙灵之庭</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>4</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>赫斯珀洛斯的好东西</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>在渊下宫开启160个宝箱</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>5</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>卡伊洛斯的时时刻刻</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>在渊下宫完成12个大世界机关限时挑战</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>达成</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>白昼之光</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>6</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>火鼠裘、龙首珠、佛前钵和··</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>取得露子委托的珊瑚技条。</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
         <is>
           <t>达成</t>
         </is>
